--- a/100result1.xlsx
+++ b/100result1.xlsx
@@ -1,86 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Tankyu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidek\OneDrive\ドキュメント\GitHub\Tankyu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619AEE8B-79A5-4D5A-8665-9E61703F32A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6194B341-2CD3-4BE5-A39E-711CF760F449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$7</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$3</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$B$4</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$C$2:$G$2</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$C$3:$G$3</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$B$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$B$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$B$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$B$5</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$C$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$8</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$B$6</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$B$7</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet2!$B$8</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet2!$B$9</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet2!$C$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet2!$C$7:$G$7</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet2!$C$8:$G$8</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet2!$C$9:$G$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$9</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet2!$B$6</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet2!$B$7</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet2!$B$8</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet2!$B$9</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet2!$C$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet2!$C$7:$G$7</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet2!$C$8:$G$8</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet2!$C$9:$G$9</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet2!$B$6</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet2!$B$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$C$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet2!$B$8</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet2!$B$9</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet2!$C$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet2!$C$7:$G$7</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet2!$C$8:$G$8</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet2!$C$9:$G$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$C$7:$G$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$C$8:$G$8</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$C$9:$G$9</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$B$6</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$B$7</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$B$8</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$B$9</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$C$6:$G$6</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$C$7:$G$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$4</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$C$8:$G$8</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$C$9:$G$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$C$2:$G$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$C$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$C$5:$G$5</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$B$2</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$B$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>精度</t>
   </si>
@@ -116,6 +81,34 @@
   </si>
   <si>
     <t>四分位</t>
+  </si>
+  <si>
+    <t>何もなし</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除のみ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近似あり</t>
+    <rPh sb="0" eb="2">
+      <t>キンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無作為に削除</t>
+    <rPh sb="0" eb="3">
+      <t>ムサクイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -158,8 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,22 +179,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.18</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.19</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.20</cx:f>
+        <cx:f dir="row">_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.21</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -210,7 +202,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>精度</cx:v>
+          <cx:v>正答率</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -231,7 +223,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>精度</a:t>
+            <a:t>正答率</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -241,8 +233,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C79D23A5-687F-4BF5-B445-A406BF0305AD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
-              <cx:v>sgdのみ</cx:v>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>何もなし</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -254,8 +246,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4D1461D3-760D-4BEC-96FE-E915C0C39BB4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
-              <cx:v>補完なし</cx:v>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>削除のみ</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
@@ -267,8 +259,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3269F0A1-BEFB-4E79-A1AC-7CF16F03C3E7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>補完あり</cx:v>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>近似あり</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="2"/>
@@ -280,8 +272,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{830D03ED-4370-4D60-B055-0F6E3FD4B19C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
-              <cx:v>ランダムに削除</cx:v>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>無作為に削除</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="3"/>
@@ -309,7 +301,27 @@
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -319,22 +331,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.6</cx:f>
+        <cx:f dir="row">_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -380,8 +392,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B79CC653-8289-448D-9BA0-50B138A43C15}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>sgdのみ</cx:v>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>何もなし</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -393,8 +405,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B7FD0A67-5811-4C7A-AB04-02D7B0A91233}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>補完なし</cx:v>
+              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:v>削除のみ</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
@@ -406,8 +418,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2C22DB46-915D-499D-BDFD-11C7AC8DFFA7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>補完あり</cx:v>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>近似あり</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="2"/>
@@ -419,8 +431,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6DAA99A8-FF39-4EB3-B633-62AAF19EF725}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
-              <cx:v>ランダムに削除</cx:v>
+              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:v>無作為に削除</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="3"/>
@@ -489,6 +501,7 @@
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -533,7 +546,7 @@
                 <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>精度</a:t>
+              <a:t>正答率</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -594,7 +607,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>sgdのみ</cx:v>
+              <cx:v>何もなし</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -607,7 +620,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.9</cx:f>
-              <cx:v>補完なし</cx:v>
+              <cx:v>削除のみ</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
@@ -620,7 +633,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.10</cx:f>
-              <cx:v>補完あり</cx:v>
+              <cx:v>近似あり</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="2"/>
@@ -2314,16 +2327,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>130174</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2359,8 +2372,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7334250" y="358774"/>
-              <a:ext cx="3232150" cy="2670176"/>
+              <a:off x="5895975" y="2978148"/>
+              <a:ext cx="4857750" cy="3308351"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2392,16 +2405,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>225424</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2437,8 +2450,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7512050" y="2987675"/>
-              <a:ext cx="2679700" cy="2212975"/>
+              <a:off x="911224" y="3054350"/>
+              <a:ext cx="4937125" cy="3013075"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2470,16 +2483,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107949</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2515,8 +2528,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6972300" y="5111750"/>
-              <a:ext cx="3670300" cy="2959100"/>
+              <a:off x="5765799" y="6292850"/>
+              <a:ext cx="4968875" cy="3082925"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2818,9 +2831,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102">
@@ -2829,7 +2842,7 @@
       </c>
     </row>
     <row r="2" spans="1:102">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3137,7 +3150,7 @@
       </c>
     </row>
     <row r="3" spans="1:102">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3443,7 +3456,7 @@
       </c>
     </row>
     <row r="4" spans="1:102">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -3749,7 +3762,7 @@
       </c>
     </row>
     <row r="5" spans="1:102">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -4055,7 +4068,7 @@
       </c>
     </row>
     <row r="6" spans="1:102">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -4363,7 +4376,7 @@
       </c>
     </row>
     <row r="7" spans="1:102">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -4669,7 +4682,7 @@
       </c>
     </row>
     <row r="8" spans="1:102">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -4975,7 +4988,7 @@
       </c>
     </row>
     <row r="9" spans="1:102">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -5295,14 +5308,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="7" width="12.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5323,11 +5336,11 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <f>QUARTILE(Sheet1!$C2:$CX2,C$11)</f>
@@ -5351,9 +5364,9 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <f>QUARTILE(Sheet1!$C3:$CX3,C$11)</f>
@@ -5377,9 +5390,9 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <f>QUARTILE(Sheet1!$C4:$CX4,C$11)</f>
@@ -5403,9 +5416,9 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <f>QUARTILE(Sheet1!$C5:$CX5,C$11)</f>
@@ -5429,11 +5442,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <f>QUARTILE(Sheet1!$C6:$CX6,C$11)</f>
@@ -5457,9 +5470,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <f>QUARTILE(Sheet1!$C7:$CX7,C$11)</f>
@@ -5483,9 +5496,9 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <f>QUARTILE(Sheet1!$C8:$CX8,C$11)</f>
@@ -5509,9 +5522,9 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <f>QUARTILE(Sheet1!$C9:$CX9,C$11)</f>

--- a/100result1.xlsx
+++ b/100result1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidek\OneDrive\ドキュメント\GitHub\Tankyu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6194B341-2CD3-4BE5-A39E-711CF760F449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0C86E-828B-485A-9DD4-69F9DFEADDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,47 +19,46 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$2</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$B$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$C$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$B$6</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$B$7</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$B$8</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$B$9</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$C$6:$G$6</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$C$7:$G$7</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$C$6:$G$6</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$C$7:$G$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$B$5</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$B$6</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$B$7</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$C$6:$G$6</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$C$7:$G$7</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$B$5</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$B$6</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$C$8:$G$8</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$C$9:$G$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$C$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$C$5:$G$5</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$B$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$B$3</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$B$7</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$C$6:$G$6</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$C$7:$G$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$C$2:$G$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$C$3:$G$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$6</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$B$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$C$5:$G$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>精度</t>
   </si>
   <si>
-    <t>sgdのみ</t>
+    <t>何もなし</t>
   </si>
   <si>
-    <t>補完なし</t>
+    <t>TobaW</t>
   </si>
   <si>
-    <t>補完あり</t>
-  </si>
-  <si>
-    <t>ランダムに削除</t>
+    <t>無作為に削除</t>
   </si>
   <si>
     <t>実行時間</t>
@@ -84,30 +83,10 @@
   </si>
   <si>
     <t>何もなし</t>
-    <rPh sb="0" eb="1">
-      <t>ナニ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>削除のみ</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>近似あり</t>
-    <rPh sb="0" eb="2">
-      <t>キンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無作為に削除</t>
-    <rPh sb="0" eb="3">
-      <t>ムサクイ</t>
-    </rPh>
+    <t>TobaW</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -151,8 +130,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -179,58 +161,25 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.6</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>正答率</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>正答率</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
+    <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{C79D23A5-687F-4BF5-B445-A406BF0305AD}">
+        <cx:series layoutId="boxWhisker" uniqueId="{47148116-C137-4C31-A117-10CBEFF98BFE}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.0</cx:f>
@@ -243,11 +192,11 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{4D1461D3-760D-4BEC-96FE-E915C0C39BB4}">
+        <cx:series layoutId="boxWhisker" uniqueId="{83B52940-42D4-412E-8DFB-965D4B499306}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>削除のみ</cx:v>
+              <cx:v>TobaW</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
@@ -256,384 +205,11 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{3269F0A1-BEFB-4E79-A1AC-7CF16F03C3E7}">
+        <cx:series layoutId="boxWhisker" uniqueId="{F14683D4-D854-4F05-B1FB-3C2826727122}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>近似あり</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{830D03ED-4370-4D60-B055-0F6E3FD4B19C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>無作為に削除</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-        <cx:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </cx:spPr>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling max="0.95000000000000007" min="0.20000000000000001"/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.18</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.19</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.20</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.21</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>実行時間</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{B79CC653-8289-448D-9BA0-50B138A43C15}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
-              <cx:v>何もなし</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{B7FD0A67-5811-4C7A-AB04-02D7B0A91233}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
-              <cx:v>削除のみ</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{2C22DB46-915D-499D-BDFD-11C7AC8DFFA7}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>近似あり</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{6DAA99A8-FF39-4EB3-B633-62AAF19EF725}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
-              <cx:v>無作為に削除</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling max="5.5" min="1"/>
-        <cx:title>
-          <cx:tx>
-            <cx:rich>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                    <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>ミリ秒</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                    <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>(ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                  <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </cx:rich>
-          </cx:tx>
-        </cx:title>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.11</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.12</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>正答率</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ランダム削除なし</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{1430ABF4-22DF-4630-8F00-D5DC8AFA7E51}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>何もなし</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{C5F28557-0A17-4B8E-8326-9F52EC7A5F48}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
-              <cx:v>削除のみ</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{4C122754-965E-42A6-B86B-CA2A4D9AD564}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
-              <cx:v>近似あり</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="2"/>
@@ -648,12 +224,89 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling min="0.70000000000000007"/>
+        <cx:valScaling max="0.95000000000000007" min="0.55000000000000004"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
     <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{AB37DAE7-CF4D-4D77-85CE-F06BCC4AE238}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>何もなし</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2F2EF503-E786-491C-A814-1E7A68EC2283}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:v>TobaW</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2584B36B-E26A-49F2-8046-9D84C37E699F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>無作為に削除</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -738,46 +391,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -1808,535 +1421,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>120648</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2345,7 +1443,7 @@
             <xdr:cNvPr id="2" name="グラフ 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B8CA1E-9689-4E26-AA6F-98D1269F349E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CABEC43-32D2-76D6-9B08-4E76B9C26A76}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2372,8 +1470,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5895975" y="2978148"/>
-              <a:ext cx="4857750" cy="3308351"/>
+              <a:off x="6757987" y="2828925"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2405,16 +1503,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>225424</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>795337</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2423,7 +1521,7 @@
             <xdr:cNvPr id="3" name="グラフ 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABFF72B-D0DA-4CFF-B3DB-C1B9D158C388}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7DB0AB-4967-C824-0F61-8CDE872EA0C7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2450,86 +1548,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="911224" y="3054350"/>
-              <a:ext cx="4937125" cy="3013075"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>この図は、お使いのバージョンの Excel では利用できません。
-この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>107949</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="グラフ 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC07F4D-55CB-481F-ADFE-1FBD4B455F41}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5765799" y="6292850"/>
-              <a:ext cx="4968875" cy="3082925"/>
+              <a:off x="1881187" y="2800350"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2825,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CX9"/>
+  <dimension ref="A1:CX7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2842,2465 +1862,1853 @@
       </c>
     </row>
     <row r="2" spans="1:102">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.85399999999999998</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="D2">
-        <v>0.85199999999999998</v>
+        <v>0.92781250000000004</v>
       </c>
       <c r="E2">
-        <v>0.84299999999999997</v>
+        <v>0.93078125</v>
       </c>
       <c r="F2">
-        <v>0.86299999999999999</v>
+        <v>0.92609375000000005</v>
       </c>
       <c r="G2">
-        <v>0.871</v>
+        <v>0.93296875000000001</v>
       </c>
       <c r="H2">
-        <v>0.85699999999999998</v>
+        <v>0.92656249999999996</v>
       </c>
       <c r="I2">
-        <v>0.85599999999999998</v>
+        <v>0.92796875000000001</v>
       </c>
       <c r="J2">
-        <v>0.85599999999999998</v>
+        <v>0.93</v>
       </c>
       <c r="K2">
-        <v>0.86</v>
+        <v>0.92874999999999996</v>
       </c>
       <c r="L2">
-        <v>0.85399999999999998</v>
+        <v>0.93328124999999995</v>
       </c>
       <c r="M2">
-        <v>0.86199999999999999</v>
+        <v>0.93015625000000002</v>
       </c>
       <c r="N2">
-        <v>0.85399999999999998</v>
+        <v>0.93046874999999996</v>
       </c>
       <c r="O2">
-        <v>0.85199999999999998</v>
+        <v>0.93078125</v>
       </c>
       <c r="P2">
-        <v>0.85199999999999998</v>
+        <v>0.93421874999999999</v>
       </c>
       <c r="Q2">
-        <v>0.85699999999999998</v>
+        <v>0.93</v>
       </c>
       <c r="R2">
-        <v>0.85299999999999998</v>
+        <v>0.92890625000000004</v>
       </c>
       <c r="S2">
-        <v>0.86199999999999999</v>
+        <v>0.92921874999999998</v>
       </c>
       <c r="T2">
-        <v>0.84399999999999997</v>
+        <v>0.92937499999999995</v>
       </c>
       <c r="U2">
-        <v>0.84899999999999998</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="V2">
-        <v>0.84699999999999998</v>
+        <v>0.92312499999999997</v>
       </c>
       <c r="W2">
-        <v>0.85299999999999998</v>
+        <v>0.93515625000000002</v>
       </c>
       <c r="X2">
-        <v>0.84399999999999997</v>
+        <v>0.93343750000000003</v>
       </c>
       <c r="Y2">
-        <v>0.84499999999999997</v>
+        <v>0.92656249999999996</v>
       </c>
       <c r="Z2">
-        <v>0.85299999999999998</v>
+        <v>0.92937499999999995</v>
       </c>
       <c r="AA2">
-        <v>0.84099999999999997</v>
+        <v>0.92765624999999996</v>
       </c>
       <c r="AB2">
-        <v>0.85599999999999998</v>
+        <v>0.93421874999999999</v>
       </c>
       <c r="AC2">
-        <v>0.86699999999999999</v>
+        <v>0.92890625000000004</v>
       </c>
       <c r="AD2">
-        <v>0.86199999999999999</v>
+        <v>0.92718750000000005</v>
       </c>
       <c r="AE2">
-        <v>0.86099999999999999</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="AF2">
-        <v>0.85199999999999998</v>
+        <v>0.92812499999999998</v>
       </c>
       <c r="AG2">
-        <v>0.873</v>
+        <v>0.93031249999999999</v>
       </c>
       <c r="AH2">
-        <v>0.85699999999999998</v>
+        <v>0.92640624999999999</v>
       </c>
       <c r="AI2">
-        <v>0.85</v>
+        <v>0.92859375</v>
       </c>
       <c r="AJ2">
-        <v>0.85</v>
+        <v>0.93312499999999998</v>
       </c>
       <c r="AK2">
-        <v>0.84799999999999998</v>
+        <v>0.93062500000000004</v>
       </c>
       <c r="AL2">
-        <v>0.84899999999999998</v>
+        <v>0.93234375000000003</v>
       </c>
       <c r="AM2">
-        <v>0.86</v>
+        <v>0.93062500000000004</v>
       </c>
       <c r="AN2">
-        <v>0.85599999999999998</v>
+        <v>0.92906250000000001</v>
       </c>
       <c r="AO2">
-        <v>0.85599999999999998</v>
+        <v>0.93171875000000004</v>
       </c>
       <c r="AP2">
-        <v>0.84699999999999998</v>
+        <v>0.9296875</v>
       </c>
       <c r="AQ2">
-        <v>0.85099999999999998</v>
+        <v>0.93</v>
       </c>
       <c r="AR2">
-        <v>0.85299999999999998</v>
+        <v>0.92906250000000001</v>
       </c>
       <c r="AS2">
-        <v>0.85499999999999998</v>
+        <v>0.93031249999999999</v>
       </c>
       <c r="AT2">
-        <v>0.85399999999999998</v>
+        <v>0.9296875</v>
       </c>
       <c r="AU2">
-        <v>0.85499999999999998</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="AV2">
-        <v>0.84799999999999998</v>
+        <v>0.92796875000000001</v>
       </c>
       <c r="AW2">
-        <v>0.85499999999999998</v>
+        <v>0.93078125</v>
       </c>
       <c r="AX2">
-        <v>0.86099999999999999</v>
+        <v>0.92921874999999998</v>
       </c>
       <c r="AY2">
-        <v>0.85399999999999998</v>
+        <v>0.93046874999999996</v>
       </c>
       <c r="AZ2">
-        <v>0.84899999999999998</v>
+        <v>0.93421874999999999</v>
       </c>
       <c r="BA2">
-        <v>0.85099999999999998</v>
+        <v>0.93281250000000004</v>
       </c>
       <c r="BB2">
-        <v>0.85399999999999998</v>
+        <v>0.93265624999999996</v>
       </c>
       <c r="BC2">
-        <v>0.85599999999999998</v>
+        <v>0.93093749999999997</v>
       </c>
       <c r="BD2">
-        <v>0.84799999999999998</v>
+        <v>0.93078125</v>
       </c>
       <c r="BE2">
-        <v>0.85</v>
+        <v>0.93031249999999999</v>
       </c>
       <c r="BF2">
-        <v>0.84199999999999997</v>
+        <v>0.93046874999999996</v>
       </c>
       <c r="BG2">
-        <v>0.84099999999999997</v>
+        <v>0.93343750000000003</v>
       </c>
       <c r="BH2">
-        <v>0.84599999999999997</v>
+        <v>0.93046874999999996</v>
       </c>
       <c r="BI2">
-        <v>0.85599999999999998</v>
+        <v>0.93140624999999999</v>
       </c>
       <c r="BJ2">
-        <v>0.84899999999999998</v>
+        <v>0.92781250000000004</v>
       </c>
       <c r="BK2">
-        <v>0.85299999999999998</v>
+        <v>0.926875</v>
       </c>
       <c r="BL2">
-        <v>0.85199999999999998</v>
+        <v>0.93203124999999998</v>
       </c>
       <c r="BM2">
-        <v>0.85699999999999998</v>
+        <v>0.92734375000000002</v>
       </c>
       <c r="BN2">
-        <v>0.86099999999999999</v>
+        <v>0.92984374999999997</v>
       </c>
       <c r="BO2">
-        <v>0.84899999999999998</v>
+        <v>0.92843750000000003</v>
       </c>
       <c r="BP2">
-        <v>0.85399999999999998</v>
+        <v>0.93015625000000002</v>
       </c>
       <c r="BQ2">
-        <v>0.85499999999999998</v>
+        <v>0.93171875000000004</v>
       </c>
       <c r="BR2">
-        <v>0.85</v>
+        <v>0.92843750000000003</v>
       </c>
       <c r="BS2">
-        <v>0.84199999999999997</v>
+        <v>0.93046874999999996</v>
       </c>
       <c r="BT2">
-        <v>0.85399999999999998</v>
+        <v>0.93281250000000004</v>
       </c>
       <c r="BU2">
-        <v>0.85199999999999998</v>
+        <v>0.93203124999999998</v>
       </c>
       <c r="BV2">
-        <v>0.85699999999999998</v>
+        <v>0.93046874999999996</v>
       </c>
       <c r="BW2">
-        <v>0.84899999999999998</v>
+        <v>0.92359374999999999</v>
       </c>
       <c r="BX2">
-        <v>0.84799999999999998</v>
+        <v>0.92874999999999996</v>
       </c>
       <c r="BY2">
-        <v>0.85099999999999998</v>
+        <v>0.93015625000000002</v>
       </c>
       <c r="BZ2">
-        <v>0.86399999999999999</v>
+        <v>0.92874999999999996</v>
       </c>
       <c r="CA2">
-        <v>0.84499999999999997</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="CB2">
-        <v>0.84599999999999997</v>
+        <v>0.93156249999999996</v>
       </c>
       <c r="CC2">
-        <v>0.84399999999999997</v>
+        <v>0.93343750000000003</v>
       </c>
       <c r="CD2">
-        <v>0.84899999999999998</v>
+        <v>0.93062500000000004</v>
       </c>
       <c r="CE2">
-        <v>0.85499999999999998</v>
+        <v>0.92718750000000005</v>
       </c>
       <c r="CF2">
-        <v>0.84399999999999997</v>
+        <v>0.93078125</v>
       </c>
       <c r="CG2">
-        <v>0.84599999999999997</v>
+        <v>0.93031249999999999</v>
       </c>
       <c r="CH2">
-        <v>0.84399999999999997</v>
+        <v>0.93078125</v>
       </c>
       <c r="CI2">
-        <v>0.84499999999999997</v>
+        <v>0.93203124999999998</v>
       </c>
       <c r="CJ2">
-        <v>0.85299999999999998</v>
+        <v>0.92890625000000004</v>
       </c>
       <c r="CK2">
-        <v>0.85499999999999998</v>
+        <v>0.92859375</v>
       </c>
       <c r="CL2">
-        <v>0.84299999999999997</v>
+        <v>0.93078125</v>
       </c>
       <c r="CM2">
-        <v>0.85099999999999998</v>
+        <v>0.9296875</v>
       </c>
       <c r="CN2">
-        <v>0.85299999999999998</v>
+        <v>0.92546874999999995</v>
       </c>
       <c r="CO2">
-        <v>0.84899999999999998</v>
+        <v>0.92765624999999996</v>
       </c>
       <c r="CP2">
-        <v>0.85199999999999998</v>
+        <v>0.93046874999999996</v>
       </c>
       <c r="CQ2">
-        <v>0.85799999999999998</v>
+        <v>0.93531249999999999</v>
       </c>
       <c r="CR2">
-        <v>0.84499999999999997</v>
+        <v>0.93265624999999996</v>
       </c>
       <c r="CS2">
-        <v>0.85099999999999998</v>
+        <v>0.92828124999999995</v>
       </c>
       <c r="CT2">
-        <v>0.86699999999999999</v>
+        <v>0.93265624999999996</v>
       </c>
       <c r="CU2">
-        <v>0.84899999999999998</v>
+        <v>0.92906250000000001</v>
       </c>
       <c r="CV2">
-        <v>0.85699999999999998</v>
+        <v>0.92671875000000004</v>
       </c>
       <c r="CW2">
-        <v>0.84699999999999998</v>
+        <v>0.92656249999999996</v>
       </c>
       <c r="CX2">
-        <v>0.84499999999999997</v>
+        <v>0.92656249999999996</v>
       </c>
     </row>
     <row r="3" spans="1:102">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.78900000000000003</v>
+        <v>0.93171875000000004</v>
       </c>
       <c r="D3">
-        <v>0.83199999999999996</v>
+        <v>0.92484374999999996</v>
       </c>
       <c r="E3">
-        <v>0.82099999999999995</v>
+        <v>0.93031249999999999</v>
       </c>
       <c r="F3">
-        <v>0.82699999999999996</v>
+        <v>0.92218750000000005</v>
       </c>
       <c r="G3">
-        <v>0.85</v>
+        <v>0.93265624999999996</v>
       </c>
       <c r="H3">
-        <v>0.82899999999999996</v>
+        <v>0.92453125000000003</v>
       </c>
       <c r="I3">
-        <v>0.84099999999999997</v>
+        <v>0.92296875</v>
       </c>
       <c r="J3">
-        <v>0.83899999999999997</v>
+        <v>0.92718750000000005</v>
       </c>
       <c r="K3">
-        <v>0.80900000000000005</v>
+        <v>0.92921874999999998</v>
       </c>
       <c r="L3">
-        <v>0.84699999999999998</v>
+        <v>0.93234375000000003</v>
       </c>
       <c r="M3">
-        <v>0.82299999999999995</v>
+        <v>0.93031249999999999</v>
       </c>
       <c r="N3">
-        <v>0.83499999999999996</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="O3">
-        <v>0.82099999999999995</v>
+        <v>0.92828124999999995</v>
       </c>
       <c r="P3">
-        <v>0.82799999999999996</v>
+        <v>0.93156249999999996</v>
       </c>
       <c r="Q3">
-        <v>0.78800000000000003</v>
+        <v>0.92890625000000004</v>
       </c>
       <c r="R3">
-        <v>0.84199999999999997</v>
+        <v>0.92796875000000001</v>
       </c>
       <c r="S3">
-        <v>0.81399999999999995</v>
+        <v>0.92718750000000005</v>
       </c>
       <c r="T3">
-        <v>0.82799999999999996</v>
+        <v>0.92937499999999995</v>
       </c>
       <c r="U3">
-        <v>0.80400000000000005</v>
+        <v>0.92843750000000003</v>
       </c>
       <c r="V3">
-        <v>0.84399999999999997</v>
+        <v>0.92046874999999995</v>
       </c>
       <c r="W3">
-        <v>0.79400000000000004</v>
+        <v>0.93312499999999998</v>
       </c>
       <c r="X3">
-        <v>0.81399999999999995</v>
+        <v>0.92984374999999997</v>
       </c>
       <c r="Y3">
-        <v>0.83099999999999996</v>
+        <v>0.92531249999999998</v>
       </c>
       <c r="Z3">
-        <v>0.82799999999999996</v>
+        <v>0.92625000000000002</v>
       </c>
       <c r="AA3">
-        <v>0.83299999999999996</v>
+        <v>0.92359374999999999</v>
       </c>
       <c r="AB3">
-        <v>0.80400000000000005</v>
+        <v>0.92859375</v>
       </c>
       <c r="AC3">
-        <v>0.78400000000000003</v>
+        <v>0.92453125000000003</v>
       </c>
       <c r="AD3">
-        <v>0.83799999999999997</v>
+        <v>0.92734375000000002</v>
       </c>
       <c r="AE3">
-        <v>0.83199999999999996</v>
+        <v>0.92578125</v>
       </c>
       <c r="AF3">
-        <v>0.84299999999999997</v>
+        <v>0.92437499999999995</v>
       </c>
       <c r="AG3">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="AH3">
-        <v>0.83</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="AI3">
-        <v>0.81599999999999995</v>
+        <v>0.92640624999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.77900000000000003</v>
+        <v>0.92843750000000003</v>
       </c>
       <c r="AK3">
-        <v>0.81399999999999995</v>
+        <v>0.92921874999999998</v>
       </c>
       <c r="AL3">
-        <v>0.82799999999999996</v>
+        <v>0.92812499999999998</v>
       </c>
       <c r="AM3">
-        <v>0.84</v>
+        <v>0.92671875000000004</v>
       </c>
       <c r="AN3">
-        <v>0.85</v>
+        <v>0.92640624999999999</v>
       </c>
       <c r="AO3">
-        <v>0.79300000000000004</v>
+        <v>0.92890625000000004</v>
       </c>
       <c r="AP3">
-        <v>0.80200000000000005</v>
+        <v>0.92734375000000002</v>
       </c>
       <c r="AQ3">
-        <v>0.80900000000000005</v>
+        <v>0.92937499999999995</v>
       </c>
       <c r="AR3">
-        <v>0.82799999999999996</v>
+        <v>0.92562500000000003</v>
       </c>
       <c r="AS3">
-        <v>0.82899999999999996</v>
+        <v>0.92718750000000005</v>
       </c>
       <c r="AT3">
-        <v>0.83</v>
+        <v>0.92515625000000001</v>
       </c>
       <c r="AU3">
-        <v>0.79</v>
+        <v>0.92843750000000003</v>
       </c>
       <c r="AV3">
-        <v>0.82</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="AW3">
-        <v>0.81299999999999994</v>
+        <v>0.92718750000000005</v>
       </c>
       <c r="AX3">
-        <v>0.80700000000000005</v>
+        <v>0.92781250000000004</v>
       </c>
       <c r="AY3">
-        <v>0.78800000000000003</v>
+        <v>0.92546874999999995</v>
       </c>
       <c r="AZ3">
-        <v>0.84499999999999997</v>
+        <v>0.93093749999999997</v>
       </c>
       <c r="BA3">
-        <v>0.81499999999999995</v>
+        <v>0.93109375000000005</v>
       </c>
       <c r="BB3">
-        <v>0.80100000000000005</v>
+        <v>0.92953125000000003</v>
       </c>
       <c r="BC3">
-        <v>0.80700000000000005</v>
+        <v>0.92984374999999997</v>
       </c>
       <c r="BD3">
-        <v>0.74</v>
+        <v>0.92781250000000004</v>
       </c>
       <c r="BE3">
-        <v>0.83199999999999996</v>
+        <v>0.92953125000000003</v>
       </c>
       <c r="BF3">
-        <v>0.82299999999999995</v>
+        <v>0.92312499999999997</v>
       </c>
       <c r="BG3">
-        <v>0.81299999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="BH3">
-        <v>0.83899999999999997</v>
+        <v>0.92578125</v>
       </c>
       <c r="BI3">
-        <v>0.76100000000000001</v>
+        <v>0.92781250000000004</v>
       </c>
       <c r="BJ3">
-        <v>0.79400000000000004</v>
+        <v>0.92703124999999997</v>
       </c>
       <c r="BK3">
-        <v>0.79900000000000004</v>
+        <v>0.92593749999999997</v>
       </c>
       <c r="BL3">
-        <v>0.81</v>
+        <v>0.92874999999999996</v>
       </c>
       <c r="BM3">
-        <v>0.79100000000000004</v>
+        <v>0.92640624999999999</v>
       </c>
       <c r="BN3">
-        <v>0.80900000000000005</v>
+        <v>0.92718750000000005</v>
       </c>
       <c r="BO3">
-        <v>0.82699999999999996</v>
+        <v>0.926875</v>
       </c>
       <c r="BP3">
-        <v>0.82299999999999995</v>
+        <v>0.92812499999999998</v>
       </c>
       <c r="BQ3">
-        <v>0.81399999999999995</v>
+        <v>0.93156249999999996</v>
       </c>
       <c r="BR3">
-        <v>0.81499999999999995</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="BS3">
-        <v>0.80600000000000005</v>
+        <v>0.92593749999999997</v>
       </c>
       <c r="BT3">
-        <v>0.72399999999999998</v>
+        <v>0.92765624999999996</v>
       </c>
       <c r="BU3">
-        <v>0.81799999999999995</v>
+        <v>0.93218749999999995</v>
       </c>
       <c r="BV3">
-        <v>0.81899999999999995</v>
+        <v>0.92578125</v>
       </c>
       <c r="BW3">
-        <v>0.79900000000000004</v>
+        <v>0.92359374999999999</v>
       </c>
       <c r="BX3">
-        <v>0.83499999999999996</v>
+        <v>0.926875</v>
       </c>
       <c r="BY3">
-        <v>0.84699999999999998</v>
+        <v>0.92484374999999996</v>
       </c>
       <c r="BZ3">
-        <v>0.83599999999999997</v>
+        <v>0.92796875000000001</v>
       </c>
       <c r="CA3">
-        <v>0.81599999999999995</v>
+        <v>0.9296875</v>
       </c>
       <c r="CB3">
-        <v>0.79700000000000004</v>
+        <v>0.93031249999999999</v>
       </c>
       <c r="CC3">
-        <v>0.83599999999999997</v>
+        <v>0.92781250000000004</v>
       </c>
       <c r="CD3">
-        <v>0.82</v>
+        <v>0.93015625000000002</v>
       </c>
       <c r="CE3">
-        <v>0.84299999999999997</v>
+        <v>0.92374999999999996</v>
       </c>
       <c r="CF3">
-        <v>0.81599999999999995</v>
+        <v>0.92546874999999995</v>
       </c>
       <c r="CG3">
-        <v>0.82399999999999995</v>
+        <v>0.9296875</v>
       </c>
       <c r="CH3">
-        <v>0.82099999999999995</v>
+        <v>0.92765624999999996</v>
       </c>
       <c r="CI3">
-        <v>0.83299999999999996</v>
+        <v>0.93187500000000001</v>
       </c>
       <c r="CJ3">
-        <v>0.83499999999999996</v>
+        <v>0.92656249999999996</v>
       </c>
       <c r="CK3">
-        <v>0.82</v>
+        <v>0.92765624999999996</v>
       </c>
       <c r="CL3">
-        <v>0.82</v>
+        <v>0.92390625000000004</v>
       </c>
       <c r="CM3">
-        <v>0.83099999999999996</v>
+        <v>0.92890625000000004</v>
       </c>
       <c r="CN3">
-        <v>0.80200000000000005</v>
+        <v>0.92781250000000004</v>
       </c>
       <c r="CO3">
-        <v>0.76300000000000001</v>
+        <v>0.92671875000000004</v>
       </c>
       <c r="CP3">
-        <v>0.82899999999999996</v>
+        <v>0.92890625000000004</v>
       </c>
       <c r="CQ3">
-        <v>0.79600000000000004</v>
+        <v>0.93421874999999999</v>
       </c>
       <c r="CR3">
-        <v>0.81599999999999995</v>
+        <v>0.93281250000000004</v>
       </c>
       <c r="CS3">
-        <v>0.82399999999999995</v>
+        <v>0.92734375000000002</v>
       </c>
       <c r="CT3">
-        <v>0.83799999999999997</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="CU3">
-        <v>0.72799999999999998</v>
+        <v>0.92421874999999998</v>
       </c>
       <c r="CV3">
-        <v>0.83899999999999997</v>
+        <v>0.92593749999999997</v>
       </c>
       <c r="CW3">
-        <v>0.83599999999999997</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="CX3">
-        <v>0.82199999999999995</v>
+        <v>0.92578125</v>
       </c>
     </row>
     <row r="4" spans="1:102">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.79</v>
+        <v>0.77203124999999995</v>
       </c>
       <c r="D4">
-        <v>0.84199999999999997</v>
+        <v>0.88296874999999997</v>
       </c>
       <c r="E4">
-        <v>0.83</v>
+        <v>0.70640625000000001</v>
       </c>
       <c r="F4">
-        <v>0.81499999999999995</v>
+        <v>0.88875000000000004</v>
       </c>
       <c r="G4">
-        <v>0.86099999999999999</v>
+        <v>0.81765624999999997</v>
       </c>
       <c r="H4">
-        <v>0.82199999999999995</v>
+        <v>0.88546875000000003</v>
       </c>
       <c r="I4">
-        <v>0.82099999999999995</v>
+        <v>0.83937499999999998</v>
       </c>
       <c r="J4">
-        <v>0.83099999999999996</v>
+        <v>0.85078125000000004</v>
       </c>
       <c r="K4">
-        <v>0.78500000000000003</v>
+        <v>0.67281250000000004</v>
       </c>
       <c r="L4">
-        <v>0.85</v>
+        <v>0.75828125000000002</v>
       </c>
       <c r="M4">
-        <v>0.81299999999999994</v>
+        <v>0.76234374999999999</v>
       </c>
       <c r="N4">
-        <v>0.84099999999999997</v>
+        <v>0.82453125000000005</v>
       </c>
       <c r="O4">
-        <v>0.84</v>
+        <v>0.87687499999999996</v>
       </c>
       <c r="P4">
-        <v>0.83</v>
+        <v>0.80437499999999995</v>
       </c>
       <c r="Q4">
-        <v>0.78600000000000003</v>
+        <v>0.88375000000000004</v>
       </c>
       <c r="R4">
-        <v>0.82799999999999996</v>
+        <v>0.81515625000000003</v>
       </c>
       <c r="S4">
-        <v>0.83199999999999996</v>
+        <v>0.77609375000000003</v>
       </c>
       <c r="T4">
-        <v>0.82399999999999995</v>
+        <v>0.69843750000000004</v>
       </c>
       <c r="U4">
-        <v>0.81100000000000005</v>
+        <v>0.76453125</v>
       </c>
       <c r="V4">
-        <v>0.85099999999999998</v>
+        <v>0.74468749999999995</v>
       </c>
       <c r="W4">
-        <v>0.81100000000000005</v>
+        <v>0.85968750000000005</v>
       </c>
       <c r="X4">
-        <v>0.82</v>
+        <v>0.80625000000000002</v>
       </c>
       <c r="Y4">
-        <v>0.83199999999999996</v>
+        <v>0.85328124999999999</v>
       </c>
       <c r="Z4">
-        <v>0.81799999999999995</v>
+        <v>0.67593749999999997</v>
       </c>
       <c r="AA4">
-        <v>0.82699999999999996</v>
+        <v>0.82390624999999995</v>
       </c>
       <c r="AB4">
-        <v>0.81299999999999994</v>
+        <v>0.89703124999999995</v>
       </c>
       <c r="AC4">
-        <v>0.81</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="AD4">
-        <v>0.83</v>
+        <v>0.89859374999999997</v>
       </c>
       <c r="AE4">
-        <v>0.84199999999999997</v>
+        <v>0.83875</v>
       </c>
       <c r="AF4">
-        <v>0.84199999999999997</v>
+        <v>0.88124999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.84899999999999998</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="AH4">
-        <v>0.83299999999999996</v>
+        <v>0.82562500000000005</v>
       </c>
       <c r="AI4">
-        <v>0.81399999999999995</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="AJ4">
-        <v>0.78300000000000003</v>
+        <v>0.71984375</v>
       </c>
       <c r="AK4">
-        <v>0.81899999999999995</v>
+        <v>0.66749999999999998</v>
       </c>
       <c r="AL4">
-        <v>0.82599999999999996</v>
+        <v>0.86921875000000004</v>
       </c>
       <c r="AM4">
-        <v>0.84899999999999998</v>
+        <v>0.84875</v>
       </c>
       <c r="AN4">
-        <v>0.83299999999999996</v>
+        <v>0.81421874999999999</v>
       </c>
       <c r="AO4">
-        <v>0.80500000000000005</v>
+        <v>0.78843750000000001</v>
       </c>
       <c r="AP4">
-        <v>0.77600000000000002</v>
+        <v>0.84265625</v>
       </c>
       <c r="AQ4">
-        <v>0.82799999999999996</v>
+        <v>0.79984374999999996</v>
       </c>
       <c r="AR4">
-        <v>0.80600000000000005</v>
+        <v>0.82296875000000003</v>
       </c>
       <c r="AS4">
-        <v>0.82899999999999996</v>
+        <v>0.82484374999999999</v>
       </c>
       <c r="AT4">
-        <v>0.84699999999999998</v>
+        <v>0.791875</v>
       </c>
       <c r="AU4">
-        <v>0.78700000000000003</v>
+        <v>0.77781250000000002</v>
       </c>
       <c r="AV4">
-        <v>0.83299999999999996</v>
+        <v>0.59921875000000002</v>
       </c>
       <c r="AW4">
-        <v>0.82699999999999996</v>
+        <v>0.67765624999999996</v>
       </c>
       <c r="AX4">
-        <v>0.81200000000000006</v>
+        <v>0.77828125000000004</v>
       </c>
       <c r="AY4">
-        <v>0.80300000000000005</v>
+        <v>0.79859374999999999</v>
       </c>
       <c r="AZ4">
-        <v>0.84199999999999997</v>
+        <v>0.80703124999999998</v>
       </c>
       <c r="BA4">
-        <v>0.82</v>
+        <v>0.79749999999999999</v>
       </c>
       <c r="BB4">
-        <v>0.81699999999999995</v>
+        <v>0.81468750000000001</v>
       </c>
       <c r="BC4">
-        <v>0.82599999999999996</v>
+        <v>0.88515624999999998</v>
       </c>
       <c r="BD4">
-        <v>0.77900000000000003</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="BE4">
-        <v>0.81899999999999995</v>
+        <v>0.80312499999999998</v>
       </c>
       <c r="BF4">
-        <v>0.83899999999999997</v>
+        <v>0.85234374999999996</v>
       </c>
       <c r="BG4">
-        <v>0.79300000000000004</v>
+        <v>0.75062499999999999</v>
       </c>
       <c r="BH4">
-        <v>0.84299999999999997</v>
+        <v>0.82343750000000004</v>
       </c>
       <c r="BI4">
-        <v>0.82799999999999996</v>
+        <v>0.86906249999999996</v>
       </c>
       <c r="BJ4">
-        <v>0.79900000000000004</v>
+        <v>0.80328124999999995</v>
       </c>
       <c r="BK4">
-        <v>0.78200000000000003</v>
+        <v>0.70953124999999995</v>
       </c>
       <c r="BL4">
-        <v>0.82699999999999996</v>
+        <v>0.86906249999999996</v>
       </c>
       <c r="BM4">
-        <v>0.79700000000000004</v>
+        <v>0.79296875</v>
       </c>
       <c r="BN4">
-        <v>0.81499999999999995</v>
+        <v>0.86421875000000004</v>
       </c>
       <c r="BO4">
-        <v>0.82599999999999996</v>
+        <v>0.84171874999999996</v>
       </c>
       <c r="BP4">
-        <v>0.80100000000000005</v>
+        <v>0.76265625000000004</v>
       </c>
       <c r="BQ4">
-        <v>0.81100000000000005</v>
+        <v>0.82078125000000002</v>
       </c>
       <c r="BR4">
-        <v>0.81399999999999995</v>
+        <v>0.71953124999999996</v>
       </c>
       <c r="BS4">
-        <v>0.83699999999999997</v>
+        <v>0.85421875000000003</v>
       </c>
       <c r="BT4">
-        <v>0.80800000000000005</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="BU4">
-        <v>0.82799999999999996</v>
+        <v>0.86093750000000002</v>
       </c>
       <c r="BV4">
-        <v>0.82799999999999996</v>
+        <v>0.85546875</v>
       </c>
       <c r="BW4">
-        <v>0.83199999999999996</v>
+        <v>0.87656250000000002</v>
       </c>
       <c r="BX4">
-        <v>0.83299999999999996</v>
+        <v>0.82968750000000002</v>
       </c>
       <c r="BY4">
-        <v>0.85099999999999998</v>
+        <v>0.82734375000000004</v>
       </c>
       <c r="BZ4">
-        <v>0.83199999999999996</v>
+        <v>0.80625000000000002</v>
       </c>
       <c r="CA4">
-        <v>0.82699999999999996</v>
+        <v>0.82406250000000003</v>
       </c>
       <c r="CB4">
-        <v>0.81399999999999995</v>
+        <v>0.90921874999999996</v>
       </c>
       <c r="CC4">
-        <v>0.84</v>
+        <v>0.66203124999999996</v>
       </c>
       <c r="CD4">
-        <v>0.82</v>
+        <v>0.79156249999999995</v>
       </c>
       <c r="CE4">
-        <v>0.79800000000000004</v>
+        <v>0.82593749999999999</v>
       </c>
       <c r="CF4">
-        <v>0.79900000000000004</v>
+        <v>0.82968750000000002</v>
       </c>
       <c r="CG4">
-        <v>0.81200000000000006</v>
+        <v>0.83546874999999998</v>
       </c>
       <c r="CH4">
-        <v>0.81299999999999994</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="CI4">
-        <v>0.82299999999999995</v>
+        <v>0.90749999999999997</v>
       </c>
       <c r="CJ4">
-        <v>0.84599999999999997</v>
+        <v>0.83734375000000005</v>
       </c>
       <c r="CK4">
-        <v>0.82099999999999995</v>
+        <v>0.84812500000000002</v>
       </c>
       <c r="CL4">
-        <v>0.82199999999999995</v>
+        <v>0.79890625000000004</v>
       </c>
       <c r="CM4">
-        <v>0.83499999999999996</v>
+        <v>0.82093749999999999</v>
       </c>
       <c r="CN4">
-        <v>0.82799999999999996</v>
+        <v>0.79078124999999999</v>
       </c>
       <c r="CO4">
-        <v>0.77600000000000002</v>
+        <v>0.84156249999999999</v>
       </c>
       <c r="CP4">
-        <v>0.83199999999999996</v>
+        <v>0.82203124999999999</v>
       </c>
       <c r="CQ4">
-        <v>0.78</v>
+        <v>0.78640624999999997</v>
       </c>
       <c r="CR4">
-        <v>0.83</v>
+        <v>0.74640625000000005</v>
       </c>
       <c r="CS4">
-        <v>0.82</v>
+        <v>0.82906250000000004</v>
       </c>
       <c r="CT4">
-        <v>0.84599999999999997</v>
+        <v>0.82687500000000003</v>
       </c>
       <c r="CU4">
-        <v>0.745</v>
+        <v>0.83171874999999995</v>
       </c>
       <c r="CV4">
-        <v>0.83599999999999997</v>
+        <v>0.87796874999999996</v>
       </c>
       <c r="CW4">
-        <v>0.83</v>
+        <v>0.85421875000000003</v>
       </c>
       <c r="CX4">
-        <v>0.83</v>
+        <v>0.81437499999999996</v>
       </c>
     </row>
     <row r="5" spans="1:102">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.54</v>
+        <v>27.03142166137695</v>
       </c>
       <c r="D5">
-        <v>0.70799999999999996</v>
+        <v>26.990652084350589</v>
       </c>
       <c r="E5">
-        <v>0.70199999999999996</v>
+        <v>26.987552642822269</v>
       </c>
       <c r="F5">
-        <v>0.57199999999999995</v>
+        <v>25.094509124755859</v>
       </c>
       <c r="G5">
-        <v>0.49199999999999999</v>
+        <v>28.007745742797852</v>
       </c>
       <c r="H5">
-        <v>0.52900000000000003</v>
+        <v>27.006626129150391</v>
       </c>
       <c r="I5">
-        <v>0.70199999999999996</v>
+        <v>27.008295059204102</v>
       </c>
       <c r="J5">
-        <v>0.53</v>
+        <v>26.954889297485352</v>
       </c>
       <c r="K5">
-        <v>0.67</v>
+        <v>27.001619338989261</v>
       </c>
       <c r="L5">
-        <v>0.58499999999999996</v>
+        <v>27.70185470581055</v>
       </c>
       <c r="M5">
-        <v>0.44800000000000001</v>
+        <v>27.18353271484375</v>
       </c>
       <c r="N5">
-        <v>0.66800000000000004</v>
+        <v>26.98421478271484</v>
       </c>
       <c r="O5">
-        <v>0.60299999999999998</v>
+        <v>26.98469161987305</v>
       </c>
       <c r="P5">
-        <v>0.57899999999999996</v>
+        <v>26.98206901550293</v>
       </c>
       <c r="Q5">
-        <v>0.60799999999999998</v>
+        <v>26.996612548828121</v>
       </c>
       <c r="R5">
-        <v>0.67100000000000004</v>
+        <v>26.285171508789059</v>
       </c>
       <c r="S5">
-        <v>0.52300000000000002</v>
+        <v>26.299238204956051</v>
       </c>
       <c r="T5">
-        <v>0.54500000000000004</v>
+        <v>26.341676712036129</v>
       </c>
       <c r="U5">
-        <v>0.56899999999999995</v>
+        <v>27.006626129150391</v>
       </c>
       <c r="V5">
-        <v>0.51900000000000002</v>
+        <v>27.246952056884769</v>
       </c>
       <c r="W5">
-        <v>0.41599999999999998</v>
+        <v>27.150392532348629</v>
       </c>
       <c r="X5">
-        <v>0.67200000000000004</v>
+        <v>26.22675895690918</v>
       </c>
       <c r="Y5">
-        <v>0.60399999999999998</v>
+        <v>27.015447616577148</v>
       </c>
       <c r="Z5">
-        <v>0.58599999999999997</v>
+        <v>27.006626129150391</v>
       </c>
       <c r="AA5">
-        <v>0.441</v>
+        <v>27.00495719909668</v>
       </c>
       <c r="AB5">
-        <v>0.49</v>
+        <v>26.99637413024902</v>
       </c>
       <c r="AC5">
-        <v>0.67200000000000004</v>
+        <v>25.964736938476559</v>
       </c>
       <c r="AD5">
-        <v>0.65300000000000002</v>
+        <v>26.990652084350589</v>
       </c>
       <c r="AE5">
-        <v>0.57499999999999996</v>
+        <v>25.960683822631839</v>
       </c>
       <c r="AF5">
-        <v>0.58199999999999996</v>
+        <v>27.467489242553711</v>
       </c>
       <c r="AG5">
-        <v>0.61299999999999999</v>
+        <v>28.00393104553223</v>
       </c>
       <c r="AH5">
-        <v>0.50600000000000001</v>
+        <v>27.063131332397461</v>
       </c>
       <c r="AI5">
-        <v>0.71699999999999997</v>
+        <v>26.73244476318359</v>
       </c>
       <c r="AJ5">
-        <v>0.74</v>
+        <v>26.99589729309082</v>
       </c>
       <c r="AK5">
-        <v>0.497</v>
+        <v>26.167392730712891</v>
       </c>
       <c r="AL5">
-        <v>0.39700000000000002</v>
+        <v>26.998281478881839</v>
       </c>
       <c r="AM5">
-        <v>0.64</v>
+        <v>26.39865875244141</v>
       </c>
       <c r="AN5">
-        <v>0.59699999999999998</v>
+        <v>25.997638702392582</v>
       </c>
       <c r="AO5">
-        <v>0.49199999999999999</v>
+        <v>27.001857757568359</v>
       </c>
       <c r="AP5">
-        <v>0.65</v>
+        <v>27.00400352478027</v>
       </c>
       <c r="AQ5">
-        <v>0.67700000000000005</v>
+        <v>27.005195617675781</v>
       </c>
       <c r="AR5">
-        <v>0.56999999999999995</v>
+        <v>26.467561721801761</v>
       </c>
       <c r="AS5">
-        <v>0.26</v>
+        <v>26.948451995849609</v>
       </c>
       <c r="AT5">
-        <v>0.59</v>
+        <v>26.21054649353027</v>
       </c>
       <c r="AU5">
-        <v>0.60899999999999999</v>
+        <v>27.392148971557621</v>
       </c>
       <c r="AV5">
-        <v>0.54800000000000004</v>
+        <v>27.036428451538089</v>
       </c>
       <c r="AW5">
-        <v>0.69099999999999995</v>
+        <v>26.01170539855957</v>
       </c>
       <c r="AX5">
-        <v>0.70699999999999996</v>
+        <v>28.203487396240231</v>
       </c>
       <c r="AY5">
-        <v>0.69299999999999995</v>
+        <v>26.487112045288089</v>
       </c>
       <c r="AZ5">
-        <v>0.26400000000000001</v>
+        <v>27.012348175048832</v>
       </c>
       <c r="BA5">
-        <v>0.38900000000000001</v>
+        <v>26.948928833007809</v>
       </c>
       <c r="BB5">
-        <v>0.55500000000000005</v>
+        <v>26.995182037353519</v>
       </c>
       <c r="BC5">
-        <v>0.53300000000000003</v>
+        <v>26.989459991455082</v>
       </c>
       <c r="BD5">
-        <v>0.64900000000000002</v>
+        <v>25.934696197509769</v>
       </c>
       <c r="BE5">
-        <v>0.58399999999999996</v>
+        <v>26.377677917480469</v>
       </c>
       <c r="BF5">
-        <v>0.47499999999999998</v>
+        <v>26.280879974365231</v>
       </c>
       <c r="BG5">
-        <v>0.56100000000000005</v>
+        <v>27.998447418212891</v>
       </c>
       <c r="BH5">
-        <v>0.72099999999999997</v>
+        <v>26.956558227539059</v>
       </c>
       <c r="BI5">
-        <v>0.70499999999999996</v>
+        <v>26.98612213134766</v>
       </c>
       <c r="BJ5">
-        <v>0.44</v>
+        <v>25.992631912231449</v>
       </c>
       <c r="BK5">
-        <v>0.66200000000000003</v>
+        <v>26.998758316040039</v>
       </c>
       <c r="BL5">
-        <v>0.68600000000000005</v>
+        <v>26.998519897460941</v>
       </c>
       <c r="BM5">
-        <v>0.36</v>
+        <v>26.300907135009769</v>
       </c>
       <c r="BN5">
-        <v>0.61399999999999999</v>
+        <v>26.326656341552731</v>
       </c>
       <c r="BO5">
-        <v>0.68300000000000005</v>
+        <v>26.186704635620121</v>
       </c>
       <c r="BP5">
-        <v>0.44900000000000001</v>
+        <v>25.952577590942379</v>
       </c>
       <c r="BQ5">
-        <v>0.36799999999999999</v>
+        <v>26.976823806762699</v>
       </c>
       <c r="BR5">
-        <v>0.497</v>
+        <v>26.392459869384769</v>
       </c>
       <c r="BS5">
-        <v>0.65800000000000003</v>
+        <v>27.014017105102539</v>
       </c>
       <c r="BT5">
-        <v>0.67400000000000004</v>
+        <v>25.993108749389648</v>
       </c>
       <c r="BU5">
-        <v>0.55100000000000005</v>
+        <v>27.00495719909668</v>
       </c>
       <c r="BV5">
-        <v>0.58799999999999997</v>
+        <v>26.290655136108398</v>
       </c>
       <c r="BW5">
-        <v>0.60099999999999998</v>
+        <v>27.017354965209961</v>
       </c>
       <c r="BX5">
-        <v>0.39200000000000002</v>
+        <v>25.9547233581543</v>
       </c>
       <c r="BY5">
-        <v>0.5</v>
+        <v>27.010440826416019</v>
       </c>
       <c r="BZ5">
-        <v>0.59</v>
+        <v>26.99637413024902</v>
       </c>
       <c r="CA5">
-        <v>0.49399999999999999</v>
+        <v>27.32086181640625</v>
       </c>
       <c r="CB5">
-        <v>0.51600000000000001</v>
+        <v>26.990652084350589</v>
       </c>
       <c r="CC5">
-        <v>0.44700000000000001</v>
+        <v>27.307510375976559</v>
       </c>
       <c r="CD5">
-        <v>0.65400000000000003</v>
+        <v>26.154994964599609</v>
       </c>
       <c r="CE5">
-        <v>0.58799999999999997</v>
+        <v>27.05836296081543</v>
       </c>
       <c r="CF5">
-        <v>0.61599999999999999</v>
+        <v>26.9622802734375</v>
       </c>
       <c r="CG5">
-        <v>0.373</v>
+        <v>27.00710296630859</v>
       </c>
       <c r="CH5">
-        <v>0.59199999999999997</v>
+        <v>28.49221229553223</v>
       </c>
       <c r="CI5">
-        <v>0.503</v>
+        <v>27.037143707275391</v>
       </c>
       <c r="CJ5">
-        <v>0.65800000000000003</v>
+        <v>27.017354965209961</v>
       </c>
       <c r="CK5">
-        <v>0.53800000000000003</v>
+        <v>27.002334594726559</v>
       </c>
       <c r="CL5">
-        <v>0.56599999999999995</v>
+        <v>26.450872421264648</v>
       </c>
       <c r="CM5">
-        <v>0.54500000000000004</v>
+        <v>28.00297737121582</v>
       </c>
       <c r="CN5">
-        <v>0.76700000000000002</v>
+        <v>27.859210968017582</v>
       </c>
       <c r="CO5">
-        <v>0.39100000000000001</v>
+        <v>26.463747024536129</v>
       </c>
       <c r="CP5">
-        <v>0.42799999999999999</v>
+        <v>26.95107460021973</v>
       </c>
       <c r="CQ5">
-        <v>0.67100000000000004</v>
+        <v>26.411533355712891</v>
       </c>
       <c r="CR5">
-        <v>0.501</v>
+        <v>27.009963989257809</v>
       </c>
       <c r="CS5">
-        <v>0.61199999999999999</v>
+        <v>26.479721069335941</v>
       </c>
       <c r="CT5">
-        <v>0.45200000000000001</v>
+        <v>26.133060455322269</v>
       </c>
       <c r="CU5">
-        <v>0.50600000000000001</v>
+        <v>27.99272537231445</v>
       </c>
       <c r="CV5">
-        <v>0.69699999999999995</v>
+        <v>27.004718780517582</v>
       </c>
       <c r="CW5">
-        <v>0.60899999999999999</v>
+        <v>26.98516845703125</v>
       </c>
       <c r="CX5">
-        <v>0.57699999999999996</v>
+        <v>26.221990585327148</v>
       </c>
     </row>
     <row r="6" spans="1:102">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2.994298934936523</v>
+        <v>28.002262115478519</v>
       </c>
       <c r="D6">
-        <v>2.0046234130859379</v>
+        <v>28.467893600463871</v>
       </c>
       <c r="E6">
-        <v>1.9972324371337891</v>
+        <v>27.960538864135739</v>
       </c>
       <c r="F6">
-        <v>1.991510391235352</v>
+        <v>27.034282684326168</v>
       </c>
       <c r="G6">
-        <v>3.017663955688477</v>
+        <v>27.035236358642582</v>
       </c>
       <c r="H6">
-        <v>1.9853115081787109</v>
+        <v>27.999162673950199</v>
       </c>
       <c r="I6">
-        <v>2.00653076171875</v>
+        <v>26.38959884643555</v>
       </c>
       <c r="J6">
-        <v>2.9997825622558589</v>
+        <v>28.001546859741211</v>
       </c>
       <c r="K6">
-        <v>1.99127197265625</v>
+        <v>27.529239654541019</v>
       </c>
       <c r="L6">
-        <v>3.0140876770019531</v>
+        <v>29.00290489196777</v>
       </c>
       <c r="M6">
-        <v>3.0236244201660161</v>
+        <v>27.00901031494141</v>
       </c>
       <c r="N6">
-        <v>1.9996166229248049</v>
+        <v>27.645587921142582</v>
       </c>
       <c r="O6">
-        <v>2.994775772094727</v>
+        <v>26.99995040893555</v>
       </c>
       <c r="P6">
-        <v>2.0008087158203121</v>
+        <v>27.004718780517582</v>
       </c>
       <c r="Q6">
-        <v>2.0010471343994141</v>
+        <v>27.653932571411129</v>
       </c>
       <c r="R6">
-        <v>1.993894577026367</v>
+        <v>28.765201568603519</v>
       </c>
       <c r="S6">
-        <v>2.9990673065185551</v>
+        <v>27.964353561401371</v>
       </c>
       <c r="T6">
-        <v>2.9964447021484379</v>
+        <v>28.00345420837402</v>
       </c>
       <c r="U6">
-        <v>2.6228427886962891</v>
+        <v>27.700662612915039</v>
       </c>
       <c r="V6">
-        <v>2.9957294464111328</v>
+        <v>28.391122817993161</v>
       </c>
       <c r="W6">
-        <v>4.8310756683349609</v>
+        <v>26.98111534118652</v>
       </c>
       <c r="X6">
-        <v>2.898931503295898</v>
+        <v>27.765035629272461</v>
       </c>
       <c r="Y6">
-        <v>3.0159950256347661</v>
+        <v>28.9454460144043</v>
       </c>
       <c r="Z6">
-        <v>3.0059814453125</v>
+        <v>27.9998779296875</v>
       </c>
       <c r="AA6">
-        <v>2.9950141906738281</v>
+        <v>26.990175247192379</v>
       </c>
       <c r="AB6">
-        <v>1.9984245300292971</v>
+        <v>26.785135269165039</v>
       </c>
       <c r="AC6">
-        <v>1.994132995605469</v>
+        <v>28.000116348266602</v>
       </c>
       <c r="AD6">
-        <v>2.9649734497070308</v>
+        <v>27.935981750488281</v>
       </c>
       <c r="AE6">
-        <v>2.7153491973876949</v>
+        <v>28.997659683227539</v>
       </c>
       <c r="AF6">
-        <v>1.9156932830810549</v>
+        <v>28.006792068481449</v>
       </c>
       <c r="AG6">
-        <v>2.0096302032470699</v>
+        <v>27.990579605102539</v>
       </c>
       <c r="AH6">
-        <v>1.9974708557128911</v>
+        <v>26.987075805664059</v>
       </c>
       <c r="AI6">
-        <v>2.0303726196289058</v>
+        <v>29.24251556396484</v>
       </c>
       <c r="AJ6">
-        <v>3.002405166625977</v>
+        <v>27.005672454833981</v>
       </c>
       <c r="AK6">
-        <v>2.9935836791992192</v>
+        <v>26.979446411132809</v>
       </c>
       <c r="AL6">
-        <v>2.1352767944335942</v>
+        <v>27.001857757568359</v>
       </c>
       <c r="AM6">
-        <v>2.0081996917724609</v>
+        <v>26.993513107299801</v>
       </c>
       <c r="AN6">
-        <v>2.1114349365234379</v>
+        <v>27.137041091918949</v>
       </c>
       <c r="AO6">
-        <v>2.9971599578857422</v>
+        <v>27.106523513793949</v>
       </c>
       <c r="AP6">
-        <v>2.0020008087158199</v>
+        <v>28.025627136230469</v>
       </c>
       <c r="AQ6">
-        <v>3.017187118530273</v>
+        <v>29.103279113769531</v>
       </c>
       <c r="AR6">
-        <v>1.998662948608398</v>
+        <v>28.967618942260739</v>
       </c>
       <c r="AS6">
-        <v>2.9988288879394531</v>
+        <v>28.14126014709473</v>
       </c>
       <c r="AT6">
-        <v>2.0017623901367192</v>
+        <v>28.00083160400391</v>
       </c>
       <c r="AU6">
-        <v>2.9940605163574219</v>
+        <v>27.001619338989261</v>
       </c>
       <c r="AV6">
-        <v>3.0000209808349609</v>
+        <v>26.964187622070309</v>
       </c>
       <c r="AW6">
-        <v>1.9936561584472661</v>
+        <v>27.95314788818359</v>
       </c>
       <c r="AX6">
-        <v>2.0172595977783199</v>
+        <v>27.101516723632809</v>
       </c>
       <c r="AY6">
-        <v>1.999139785766602</v>
+        <v>27.991533279418949</v>
       </c>
       <c r="AZ6">
-        <v>3.0007362365722661</v>
+        <v>27.10413932800293</v>
       </c>
       <c r="BA6">
-        <v>3.0000209808349609</v>
+        <v>27.002811431884769</v>
       </c>
       <c r="BB6">
-        <v>2.0036697387695308</v>
+        <v>27.99582481384277</v>
       </c>
       <c r="BC6">
-        <v>1.9841194152832029</v>
+        <v>27.981996536254879</v>
       </c>
       <c r="BD6">
-        <v>2.0003318786621089</v>
+        <v>27.828216552734379</v>
       </c>
       <c r="BE6">
-        <v>3.0071735382080078</v>
+        <v>28.002023696899411</v>
       </c>
       <c r="BF6">
-        <v>2.0012855529785161</v>
+        <v>28.142213821411129</v>
       </c>
       <c r="BG6">
-        <v>1.995086669921875</v>
+        <v>27.98557281494141</v>
       </c>
       <c r="BH6">
-        <v>3.0045509338378911</v>
+        <v>26.309013366699219</v>
       </c>
       <c r="BI6">
-        <v>2.002716064453125</v>
+        <v>27.956485748291019</v>
       </c>
       <c r="BJ6">
-        <v>3.0004978179931641</v>
+        <v>28.064727783203121</v>
       </c>
       <c r="BK6">
-        <v>2.006292343139648</v>
+        <v>28.00750732421875</v>
       </c>
       <c r="BL6">
-        <v>2.9995441436767578</v>
+        <v>28.002023696899411</v>
       </c>
       <c r="BM6">
-        <v>2.0122528076171879</v>
+        <v>27.29439735412598</v>
       </c>
       <c r="BN6">
-        <v>1.9907951354980471</v>
+        <v>28.00750732421875</v>
       </c>
       <c r="BO6">
-        <v>3.0117034912109379</v>
+        <v>27.642965316772461</v>
       </c>
       <c r="BP6">
-        <v>2.987146377563477</v>
+        <v>28.050661087036129</v>
       </c>
       <c r="BQ6">
-        <v>2.9976367950439449</v>
+        <v>27.30607986450195</v>
       </c>
       <c r="BR6">
-        <v>3.0000209808349609</v>
+        <v>27.25124359130859</v>
       </c>
       <c r="BS6">
-        <v>2.9816627502441411</v>
+        <v>28.034210205078121</v>
       </c>
       <c r="BT6">
-        <v>2.0246505737304692</v>
+        <v>28.993844985961911</v>
       </c>
       <c r="BU6">
-        <v>2.959966659545898</v>
+        <v>28.004884719848629</v>
       </c>
       <c r="BV6">
-        <v>2.0055770874023442</v>
+        <v>26.902675628662109</v>
       </c>
       <c r="BW6">
-        <v>3.0121803283691411</v>
+        <v>28.002500534057621</v>
       </c>
       <c r="BX6">
-        <v>1.996040344238281</v>
+        <v>26.962518692016602</v>
       </c>
       <c r="BY6">
-        <v>2.6650428771972661</v>
+        <v>27.242422103881839</v>
       </c>
       <c r="BZ6">
-        <v>1.995086669921875</v>
+        <v>27.516603469848629</v>
       </c>
       <c r="CA6">
-        <v>2.8996467590332031</v>
+        <v>28.00798416137695</v>
       </c>
       <c r="CB6">
-        <v>2.9950141906738281</v>
+        <v>27.96268463134766</v>
       </c>
       <c r="CC6">
-        <v>2.002477645874023</v>
+        <v>27.005672454833981</v>
       </c>
       <c r="CD6">
-        <v>2.0222663879394531</v>
+        <v>27.9994010925293</v>
       </c>
       <c r="CE6">
-        <v>3.1094551086425781</v>
+        <v>28.188943862915039</v>
       </c>
       <c r="CF6">
-        <v>2.0098686218261719</v>
+        <v>27.3594856262207</v>
       </c>
       <c r="CG6">
-        <v>1.9917488098144529</v>
+        <v>26.945590972900391</v>
       </c>
       <c r="CH6">
-        <v>2.9845237731933589</v>
+        <v>27.339935302734379</v>
       </c>
       <c r="CI6">
-        <v>2.0270347595214839</v>
+        <v>26.944160461425781</v>
       </c>
       <c r="CJ6">
-        <v>2.9606819152832031</v>
+        <v>26.99732780456543</v>
       </c>
       <c r="CK6">
-        <v>2.044916152954102</v>
+        <v>27.987957000732418</v>
       </c>
       <c r="CL6">
-        <v>1.9869804382324221</v>
+        <v>28.960943222045898</v>
       </c>
       <c r="CM6">
-        <v>2.0010471343994141</v>
+        <v>26.948213577270511</v>
       </c>
       <c r="CN6">
-        <v>3.0064582824707031</v>
+        <v>27.96077728271484</v>
       </c>
       <c r="CO6">
-        <v>2.9950141906738281</v>
+        <v>26.388168334960941</v>
       </c>
       <c r="CP6">
-        <v>1.9929409027099609</v>
+        <v>29.258489608764648</v>
       </c>
       <c r="CQ6">
-        <v>3.0002593994140621</v>
+        <v>27.99224853515625</v>
       </c>
       <c r="CR6">
-        <v>3.0055046081542969</v>
+        <v>27.040958404541019</v>
       </c>
       <c r="CS6">
-        <v>1.9931793212890621</v>
+        <v>26.995182037353519</v>
       </c>
       <c r="CT6">
-        <v>1.996278762817383</v>
+        <v>26.983261108398441</v>
       </c>
       <c r="CU6">
-        <v>2.0039081573486328</v>
+        <v>27.979135513305661</v>
       </c>
       <c r="CV6">
-        <v>1.941442489624023</v>
+        <v>26.996612548828121</v>
       </c>
       <c r="CW6">
-        <v>3.0231475830078121</v>
+        <v>26.999235153198239</v>
       </c>
       <c r="CX6">
-        <v>3.021478652954102</v>
+        <v>27.9994010925293</v>
       </c>
     </row>
     <row r="7" spans="1:102">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2.9864311218261719</v>
+        <v>28.143167495727539</v>
       </c>
       <c r="D7">
-        <v>1.9583702087402339</v>
+        <v>27.33612060546875</v>
       </c>
       <c r="E7">
-        <v>2.0017623901367192</v>
+        <v>27.003765106201168</v>
       </c>
       <c r="F7">
-        <v>2.0005702972412109</v>
+        <v>27.008056640625</v>
       </c>
       <c r="G7">
-        <v>2.0251274108886719</v>
+        <v>26.990890502929691</v>
       </c>
       <c r="H7">
-        <v>1.9624233245849609</v>
+        <v>28.052568435668949</v>
       </c>
       <c r="I7">
-        <v>2.998113632202148</v>
+        <v>27.00352668762207</v>
       </c>
       <c r="J7">
-        <v>3.0026435852050781</v>
+        <v>26.998519897460941</v>
       </c>
       <c r="K7">
-        <v>2.3896694183349609</v>
+        <v>28.616666793823239</v>
       </c>
       <c r="L7">
-        <v>3.013372421264648</v>
+        <v>28.056621551513668</v>
       </c>
       <c r="M7">
-        <v>2.1076202392578121</v>
+        <v>26.994466781616211</v>
       </c>
       <c r="N7">
-        <v>2.986669540405273</v>
+        <v>28.49221229553223</v>
       </c>
       <c r="O7">
-        <v>1.988410949707031</v>
+        <v>26.990413665771481</v>
       </c>
       <c r="P7">
-        <v>2.010345458984375</v>
+        <v>26.606559753417969</v>
       </c>
       <c r="Q7">
-        <v>2.9950141906738281</v>
+        <v>27.750968933105469</v>
       </c>
       <c r="R7">
-        <v>2.9888153076171879</v>
+        <v>27.116298675537109</v>
       </c>
       <c r="S7">
-        <v>2.022027969360352</v>
+        <v>27.014970779418949</v>
       </c>
       <c r="T7">
-        <v>2.9935836791992192</v>
+        <v>26.96132659912109</v>
       </c>
       <c r="U7">
-        <v>2.0053386688232422</v>
+        <v>27.72212028503418</v>
       </c>
       <c r="V7">
-        <v>2.9962062835693359</v>
+        <v>27.474164962768551</v>
       </c>
       <c r="W7">
-        <v>3.0045509338378911</v>
+        <v>27.704954147338871</v>
       </c>
       <c r="X7">
-        <v>1.997947692871094</v>
+        <v>28.17893028259277</v>
       </c>
       <c r="Y7">
-        <v>2.0031929016113281</v>
+        <v>27.345418930053711</v>
       </c>
       <c r="Z7">
-        <v>3.0035972595214839</v>
+        <v>27.03142166137695</v>
       </c>
       <c r="AA7">
-        <v>2.0055770874023442</v>
+        <v>26.99995040893555</v>
       </c>
       <c r="AB7">
-        <v>2.0110607147216801</v>
+        <v>27.495622634887699</v>
       </c>
       <c r="AC7">
-        <v>3.0000209808349609</v>
+        <v>27.945756912231449</v>
       </c>
       <c r="AD7">
-        <v>3.0086040496826172</v>
+        <v>27.472257614135739</v>
       </c>
       <c r="AE7">
-        <v>3.0331611633300781</v>
+        <v>27.051925659179691</v>
       </c>
       <c r="AF7">
-        <v>2.5391578674316411</v>
+        <v>28.051376342773441</v>
       </c>
       <c r="AG7">
-        <v>1.977205276489258</v>
+        <v>27.047395706176761</v>
       </c>
       <c r="AH7">
-        <v>1.8939971923828121</v>
+        <v>27.966976165771481</v>
       </c>
       <c r="AI7">
-        <v>1.984596252441406</v>
+        <v>27.466058731079102</v>
       </c>
       <c r="AJ7">
-        <v>2.9115676879882808</v>
+        <v>27.333974838256839</v>
       </c>
       <c r="AK7">
-        <v>2.0897388458251949</v>
+        <v>27.030229568481449</v>
       </c>
       <c r="AL7">
-        <v>2.101898193359375</v>
+        <v>28.005123138427731</v>
       </c>
       <c r="AM7">
-        <v>3.001928329467773</v>
+        <v>28.000593185424801</v>
       </c>
       <c r="AN7">
-        <v>2.0017623901367192</v>
+        <v>26.831865310668949</v>
       </c>
       <c r="AO7">
-        <v>1.9989013671875</v>
+        <v>27.01258659362793</v>
       </c>
       <c r="AP7">
-        <v>2.9888153076171879</v>
+        <v>26.394367218017582</v>
       </c>
       <c r="AQ7">
-        <v>1.9965171813964839</v>
+        <v>28.008937835693359</v>
       </c>
       <c r="AR7">
-        <v>1.988410949707031</v>
+        <v>28.00083160400391</v>
       </c>
       <c r="AS7">
-        <v>3.0126571655273442</v>
+        <v>27.352809906005859</v>
       </c>
       <c r="AT7">
-        <v>2.9938220977783199</v>
+        <v>26.880979537963871</v>
       </c>
       <c r="AU7">
-        <v>3.0195713043212891</v>
+        <v>27.04668045043945</v>
       </c>
       <c r="AV7">
-        <v>2.986907958984375</v>
+        <v>27.997493743896481</v>
       </c>
       <c r="AW7">
-        <v>3.0050277709960942</v>
+        <v>27.99582481384277</v>
       </c>
       <c r="AX7">
-        <v>2.0077228546142578</v>
+        <v>27.01258659362793</v>
       </c>
       <c r="AY7">
-        <v>1.992225646972656</v>
+        <v>28.001546859741211</v>
       </c>
       <c r="AZ7">
-        <v>2.9976367950439449</v>
+        <v>27.371406555175781</v>
       </c>
       <c r="BA7">
-        <v>2.9997825622558589</v>
+        <v>28.009414672851559</v>
       </c>
       <c r="BB7">
-        <v>1.8973350524902339</v>
+        <v>28.95760536193848</v>
       </c>
       <c r="BC7">
-        <v>2.898931503295898</v>
+        <v>28.010368347167969</v>
       </c>
       <c r="BD7">
-        <v>1.9869804382324221</v>
+        <v>27.00901031494141</v>
       </c>
       <c r="BE7">
-        <v>2.9997825622558589</v>
+        <v>27.058124542236332</v>
       </c>
       <c r="BF7">
-        <v>3.0012130737304692</v>
+        <v>27.000188827514648</v>
       </c>
       <c r="BG7">
-        <v>1.986265182495117</v>
+        <v>27.04668045043945</v>
       </c>
       <c r="BH7">
-        <v>1.9867420196533201</v>
+        <v>27.22620964050293</v>
       </c>
       <c r="BI7">
-        <v>3.15093994140625</v>
+        <v>27.333498001098629</v>
       </c>
       <c r="BJ7">
-        <v>2.9926300048828121</v>
+        <v>28.037786483764648</v>
       </c>
       <c r="BK7">
-        <v>2.987146377563477</v>
+        <v>27.954339981079102</v>
       </c>
       <c r="BL7">
-        <v>3.0002593994140621</v>
+        <v>26.998758316040039</v>
       </c>
       <c r="BM7">
-        <v>3.0186176300048828</v>
+        <v>27.002811431884769</v>
       </c>
       <c r="BN7">
-        <v>1.9984245300292971</v>
+        <v>27.94957160949707</v>
       </c>
       <c r="BO7">
-        <v>2.9993057250976558</v>
+        <v>28.27358245849609</v>
       </c>
       <c r="BP7">
-        <v>2.0036697387695308</v>
+        <v>28.049945831298832</v>
       </c>
       <c r="BQ7">
-        <v>3.0877590179443359</v>
+        <v>26.458740234375</v>
       </c>
       <c r="BR7">
-        <v>2.9551982879638672</v>
+        <v>27.479171752929691</v>
       </c>
       <c r="BS7">
-        <v>2.9940605163574219</v>
+        <v>27.998447418212891</v>
       </c>
       <c r="BT7">
-        <v>2.9964447021484379</v>
+        <v>27.043581008911129</v>
       </c>
       <c r="BU7">
-        <v>2.9919147491455078</v>
+        <v>28.001308441162109</v>
       </c>
       <c r="BV7">
-        <v>2.0051002502441411</v>
+        <v>26.99995040893555</v>
       </c>
       <c r="BW7">
-        <v>2.9952526092529301</v>
+        <v>28.002500534057621</v>
       </c>
       <c r="BX7">
-        <v>2.025365829467773</v>
+        <v>28.041362762451168</v>
       </c>
       <c r="BY7">
-        <v>2.0058155059814449</v>
+        <v>28.14483642578125</v>
       </c>
       <c r="BZ7">
-        <v>2.0058155059814449</v>
+        <v>28.012275695800781</v>
       </c>
       <c r="CA7">
-        <v>2.0992755889892578</v>
+        <v>28.000593185424801</v>
       </c>
       <c r="CB7">
-        <v>2.9966831207275391</v>
+        <v>28.679609298706051</v>
       </c>
       <c r="CC7">
-        <v>1.996040344238281</v>
+        <v>28.001070022583011</v>
       </c>
       <c r="CD7">
-        <v>2.0055770874023442</v>
+        <v>27.024507522583011</v>
       </c>
       <c r="CE7">
-        <v>3.009557723999023</v>
+        <v>28.058052062988281</v>
       </c>
       <c r="CF7">
-        <v>2.9582977294921879</v>
+        <v>28.051614761352539</v>
       </c>
       <c r="CG7">
-        <v>1.9512176513671879</v>
+        <v>28.002738952636719</v>
       </c>
       <c r="CH7">
-        <v>1.9881725311279299</v>
+        <v>28.045892715454102</v>
       </c>
       <c r="CI7">
-        <v>1.9993782043457029</v>
+        <v>28.042316436767582</v>
       </c>
       <c r="CJ7">
-        <v>2.9962062835693359</v>
+        <v>26.991367340087891</v>
       </c>
       <c r="CK7">
-        <v>2.9163360595703121</v>
+        <v>28.001070022583011</v>
       </c>
       <c r="CL7">
-        <v>1.9965171813964839</v>
+        <v>27.056455612182621</v>
       </c>
       <c r="CM7">
-        <v>2.0031929016113281</v>
+        <v>28.654575347900391</v>
       </c>
       <c r="CN7">
-        <v>2.0012855529785161</v>
+        <v>26.99995040893555</v>
       </c>
       <c r="CO7">
-        <v>1.9974708557128911</v>
+        <v>26.00002288818359</v>
       </c>
       <c r="CP7">
-        <v>2.0015239715576172</v>
+        <v>27.387142181396481</v>
       </c>
       <c r="CQ7">
-        <v>2.9888153076171879</v>
+        <v>26.999235153198239</v>
       </c>
       <c r="CR7">
-        <v>1.6205310821533201</v>
+        <v>27.01163291931152</v>
       </c>
       <c r="CS7">
-        <v>2.0039081573486328</v>
+        <v>26.98421478271484</v>
       </c>
       <c r="CT7">
-        <v>3.0078887939453121</v>
+        <v>27.150630950927731</v>
       </c>
       <c r="CU7">
-        <v>2.9721260070800781</v>
+        <v>27.669429779052731</v>
       </c>
       <c r="CV7">
-        <v>2.0129680633544922</v>
+        <v>28.000116348266602</v>
       </c>
       <c r="CW7">
-        <v>2.9954910278320308</v>
+        <v>27.964591979980469</v>
       </c>
       <c r="CX7">
-        <v>2.06756591796875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:102">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>1.9898414611816411</v>
-      </c>
-      <c r="D8">
-        <v>2.986907958984375</v>
-      </c>
-      <c r="E8">
-        <v>1.999139785766602</v>
-      </c>
-      <c r="F8">
-        <v>2.9997825622558589</v>
-      </c>
-      <c r="G8">
-        <v>2.9821395874023442</v>
-      </c>
-      <c r="H8">
-        <v>2.8908252716064449</v>
-      </c>
-      <c r="I8">
-        <v>2.109766006469727</v>
-      </c>
-      <c r="J8">
-        <v>2.002716064453125</v>
-      </c>
-      <c r="K8">
-        <v>1.997947692871094</v>
-      </c>
-      <c r="L8">
-        <v>1.997709274291992</v>
-      </c>
-      <c r="M8">
-        <v>2.9976367950439449</v>
-      </c>
-      <c r="N8">
-        <v>2.5131702423095699</v>
-      </c>
-      <c r="O8">
-        <v>2.0010471343994141</v>
-      </c>
-      <c r="P8">
-        <v>2.0122528076171879</v>
-      </c>
-      <c r="Q8">
-        <v>1.9967555999755859</v>
-      </c>
-      <c r="R8">
-        <v>3.1063556671142578</v>
-      </c>
-      <c r="S8">
-        <v>3.0014514923095699</v>
-      </c>
-      <c r="T8">
-        <v>2.0000934600830078</v>
-      </c>
-      <c r="U8">
-        <v>1.9857883453369141</v>
-      </c>
-      <c r="V8">
-        <v>1.9805431365966799</v>
-      </c>
-      <c r="W8">
-        <v>2.1109580993652339</v>
-      </c>
-      <c r="X8">
-        <v>2.8936862945556641</v>
-      </c>
-      <c r="Y8">
-        <v>3.1073093414306641</v>
-      </c>
-      <c r="Z8">
-        <v>2.9997825622558589</v>
-      </c>
-      <c r="AA8">
-        <v>3.0033588409423828</v>
-      </c>
-      <c r="AB8">
-        <v>1.9817352294921879</v>
-      </c>
-      <c r="AC8">
-        <v>2.0017623901367192</v>
-      </c>
-      <c r="AD8">
-        <v>2.9051303863525391</v>
-      </c>
-      <c r="AE8">
-        <v>2.9962062835693359</v>
-      </c>
-      <c r="AF8">
-        <v>1.991510391235352</v>
-      </c>
-      <c r="AG8">
-        <v>1.6188621520996089</v>
-      </c>
-      <c r="AH8">
-        <v>2.9890537261962891</v>
-      </c>
-      <c r="AI8">
-        <v>3.0953884124755859</v>
-      </c>
-      <c r="AJ8">
-        <v>3.60870361328125</v>
-      </c>
-      <c r="AK8">
-        <v>2.99835205078125</v>
-      </c>
-      <c r="AL8">
-        <v>1.9965171813964839</v>
-      </c>
-      <c r="AM8">
-        <v>2.9952526092529301</v>
-      </c>
-      <c r="AN8">
-        <v>1.992464065551758</v>
-      </c>
-      <c r="AO8">
-        <v>1.739740371704102</v>
-      </c>
-      <c r="AP8">
-        <v>1.997947692871094</v>
-      </c>
-      <c r="AQ8">
-        <v>1.9781589508056641</v>
-      </c>
-      <c r="AR8">
-        <v>1.9898414611816411</v>
-      </c>
-      <c r="AS8">
-        <v>2.9969215393066411</v>
-      </c>
-      <c r="AT8">
-        <v>2.9892921447753911</v>
-      </c>
-      <c r="AU8">
-        <v>3.1025409698486328</v>
-      </c>
-      <c r="AV8">
-        <v>1.998662948608398</v>
-      </c>
-      <c r="AW8">
-        <v>3.0391216278076172</v>
-      </c>
-      <c r="AX8">
-        <v>1.976251602172852</v>
-      </c>
-      <c r="AY8">
-        <v>2.9006004333496089</v>
-      </c>
-      <c r="AZ8">
-        <v>1.982688903808594</v>
-      </c>
-      <c r="BA8">
-        <v>1.513481140136719</v>
-      </c>
-      <c r="BB8">
-        <v>3.0050277709960942</v>
-      </c>
-      <c r="BC8">
-        <v>1.9996166229248049</v>
-      </c>
-      <c r="BD8">
-        <v>1.9958019256591799</v>
-      </c>
-      <c r="BE8">
-        <v>2.0020008087158199</v>
-      </c>
-      <c r="BF8">
-        <v>1.986265182495117</v>
-      </c>
-      <c r="BG8">
-        <v>2.9923915863037109</v>
-      </c>
-      <c r="BH8">
-        <v>1.997709274291992</v>
-      </c>
-      <c r="BI8">
-        <v>2.9051303863525391</v>
-      </c>
-      <c r="BJ8">
-        <v>2.02178955078125</v>
-      </c>
-      <c r="BK8">
-        <v>1.999139785766602</v>
-      </c>
-      <c r="BL8">
-        <v>3.8881301879882808</v>
-      </c>
-      <c r="BM8">
-        <v>1.9881725311279299</v>
-      </c>
-      <c r="BN8">
-        <v>2.9957294464111328</v>
-      </c>
-      <c r="BO8">
-        <v>1.9869804382324221</v>
-      </c>
-      <c r="BP8">
-        <v>2.0003318786621089</v>
-      </c>
-      <c r="BQ8">
-        <v>2.0000934600830078</v>
-      </c>
-      <c r="BR8">
-        <v>2.9170513153076172</v>
-      </c>
-      <c r="BS8">
-        <v>2.0022392272949219</v>
-      </c>
-      <c r="BT8">
-        <v>1.9888877868652339</v>
-      </c>
-      <c r="BU8">
-        <v>3.0167102813720699</v>
-      </c>
-      <c r="BV8">
-        <v>1.9853115081787109</v>
-      </c>
-      <c r="BW8">
-        <v>1.997709274291992</v>
-      </c>
-      <c r="BX8">
-        <v>1.990318298339844</v>
-      </c>
-      <c r="BY8">
-        <v>1.9934177398681641</v>
-      </c>
-      <c r="BZ8">
-        <v>3.0255317687988281</v>
-      </c>
-      <c r="CA8">
-        <v>1.981019973754883</v>
-      </c>
-      <c r="CB8">
-        <v>2.032995223999023</v>
-      </c>
-      <c r="CC8">
-        <v>3.9930343627929692</v>
-      </c>
-      <c r="CD8">
-        <v>1.9354820251464839</v>
-      </c>
-      <c r="CE8">
-        <v>2.0031929016113281</v>
-      </c>
-      <c r="CF8">
-        <v>1.9931793212890621</v>
-      </c>
-      <c r="CG8">
-        <v>1.99127197265625</v>
-      </c>
-      <c r="CH8">
-        <v>2.0556449890136719</v>
-      </c>
-      <c r="CI8">
-        <v>3.005743026733398</v>
-      </c>
-      <c r="CJ8">
-        <v>1.9996166229248049</v>
-      </c>
-      <c r="CK8">
-        <v>3.0319690704345699</v>
-      </c>
-      <c r="CL8">
-        <v>2.9597282409667969</v>
-      </c>
-      <c r="CM8">
-        <v>1.982450485229492</v>
-      </c>
-      <c r="CN8">
-        <v>2.9890537261962891</v>
-      </c>
-      <c r="CO8">
-        <v>2.9952526092529301</v>
-      </c>
-      <c r="CP8">
-        <v>2.1121501922607422</v>
-      </c>
-      <c r="CQ8">
-        <v>2.0041465759277339</v>
-      </c>
-      <c r="CR8">
-        <v>1.9984245300292971</v>
-      </c>
-      <c r="CS8">
-        <v>2.0020008087158199</v>
-      </c>
-      <c r="CT8">
-        <v>2.0468235015869141</v>
-      </c>
-      <c r="CU8">
-        <v>4.0040016174316406</v>
-      </c>
-      <c r="CV8">
-        <v>2.0060539245605469</v>
-      </c>
-      <c r="CW8">
-        <v>3.0117034912109379</v>
-      </c>
-      <c r="CX8">
-        <v>2.0380020141601558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:102">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>3.0035972595214839</v>
-      </c>
-      <c r="D9">
-        <v>3.0102729797363281</v>
-      </c>
-      <c r="E9">
-        <v>3.0000209808349609</v>
-      </c>
-      <c r="F9">
-        <v>3.0009746551513672</v>
-      </c>
-      <c r="G9">
-        <v>2.0112991333007808</v>
-      </c>
-      <c r="H9">
-        <v>1.9981861114501951</v>
-      </c>
-      <c r="I9">
-        <v>2.9993057250976558</v>
-      </c>
-      <c r="J9">
-        <v>3.0283927917480469</v>
-      </c>
-      <c r="K9">
-        <v>2.1040439605712891</v>
-      </c>
-      <c r="L9">
-        <v>2.1002292633056641</v>
-      </c>
-      <c r="M9">
-        <v>2.0074844360351558</v>
-      </c>
-      <c r="N9">
-        <v>1.999139785766602</v>
-      </c>
-      <c r="O9">
-        <v>2.0022392272949219</v>
-      </c>
-      <c r="P9">
-        <v>2.9995441436767578</v>
-      </c>
-      <c r="Q9">
-        <v>2.0112991333007808</v>
-      </c>
-      <c r="R9">
-        <v>3.006219863891602</v>
-      </c>
-      <c r="S9">
-        <v>2.979040145874023</v>
-      </c>
-      <c r="T9">
-        <v>2.9995441436767578</v>
-      </c>
-      <c r="U9">
-        <v>1.8825531005859379</v>
-      </c>
-      <c r="V9">
-        <v>3.1008720397949219</v>
-      </c>
-      <c r="W9">
-        <v>3.002166748046875</v>
-      </c>
-      <c r="X9">
-        <v>2.0124912261962891</v>
-      </c>
-      <c r="Y9">
-        <v>3.0179023742675781</v>
-      </c>
-      <c r="Z9">
-        <v>2.0048618316650391</v>
-      </c>
-      <c r="AA9">
-        <v>1.9958019256591799</v>
-      </c>
-      <c r="AB9">
-        <v>3.0004978179931641</v>
-      </c>
-      <c r="AC9">
-        <v>2.99835205078125</v>
-      </c>
-      <c r="AD9">
-        <v>2.8984546661376949</v>
-      </c>
-      <c r="AE9">
-        <v>3.017187118530273</v>
-      </c>
-      <c r="AF9">
-        <v>3.0121803283691411</v>
-      </c>
-      <c r="AG9">
-        <v>3.0047893524169922</v>
-      </c>
-      <c r="AH9">
-        <v>2.9997825622558589</v>
-      </c>
-      <c r="AI9">
-        <v>2.9926300048828121</v>
-      </c>
-      <c r="AJ9">
-        <v>3.002405166625977</v>
-      </c>
-      <c r="AK9">
-        <v>1.9984245300292971</v>
-      </c>
-      <c r="AL9">
-        <v>2.1455287933349609</v>
-      </c>
-      <c r="AM9">
-        <v>2.0058155059814449</v>
-      </c>
-      <c r="AN9">
-        <v>1.73187255859375</v>
-      </c>
-      <c r="AO9">
-        <v>3.0169486999511719</v>
-      </c>
-      <c r="AP9">
-        <v>3.105401992797852</v>
-      </c>
-      <c r="AQ9">
-        <v>2.0122528076171879</v>
-      </c>
-      <c r="AR9">
-        <v>3.0083656311035161</v>
-      </c>
-      <c r="AS9">
-        <v>2.1147727966308589</v>
-      </c>
-      <c r="AT9">
-        <v>2.9149055480957031</v>
-      </c>
-      <c r="AU9">
-        <v>2.0706653594970699</v>
-      </c>
-      <c r="AV9">
-        <v>2.9993057250976558</v>
-      </c>
-      <c r="AW9">
-        <v>3.0083656311035161</v>
-      </c>
-      <c r="AX9">
-        <v>3.0076503753662109</v>
-      </c>
-      <c r="AY9">
-        <v>2.018213272094727</v>
-      </c>
-      <c r="AZ9">
-        <v>2.0008087158203121</v>
-      </c>
-      <c r="BA9">
-        <v>3.0035972595214839</v>
-      </c>
-      <c r="BB9">
-        <v>1.999139785766602</v>
-      </c>
-      <c r="BC9">
-        <v>1.9946098327636721</v>
-      </c>
-      <c r="BD9">
-        <v>2.1035671234130859</v>
-      </c>
-      <c r="BE9">
-        <v>2.0046234130859379</v>
-      </c>
-      <c r="BF9">
-        <v>3.108978271484375</v>
-      </c>
-      <c r="BG9">
-        <v>3.0355453491210942</v>
-      </c>
-      <c r="BH9">
-        <v>1.894712448120117</v>
-      </c>
-      <c r="BI9">
-        <v>1.9958019256591799</v>
-      </c>
-      <c r="BJ9">
-        <v>1.9993782043457029</v>
-      </c>
-      <c r="BK9">
-        <v>1.9927024841308589</v>
-      </c>
-      <c r="BL9">
-        <v>1.9907951354980471</v>
-      </c>
-      <c r="BM9">
-        <v>1.9867420196533201</v>
-      </c>
-      <c r="BN9">
-        <v>3.0181407928466801</v>
-      </c>
-      <c r="BO9">
-        <v>1.9726753234863279</v>
-      </c>
-      <c r="BP9">
-        <v>2.9988288879394531</v>
-      </c>
-      <c r="BQ9">
-        <v>1.9974708557128911</v>
-      </c>
-      <c r="BR9">
-        <v>3.0119419097900391</v>
-      </c>
-      <c r="BS9">
-        <v>3.0012130737304692</v>
-      </c>
-      <c r="BT9">
-        <v>3.0026435852050781</v>
-      </c>
-      <c r="BU9">
-        <v>2.9952526092529301</v>
-      </c>
-      <c r="BV9">
-        <v>3.0233860015869141</v>
-      </c>
-      <c r="BW9">
-        <v>2.0322799682617192</v>
-      </c>
-      <c r="BX9">
-        <v>3.0000209808349609</v>
-      </c>
-      <c r="BY9">
-        <v>2.998113632202148</v>
-      </c>
-      <c r="BZ9">
-        <v>1.996278762817383</v>
-      </c>
-      <c r="CA9">
-        <v>1.9993782043457029</v>
-      </c>
-      <c r="CB9">
-        <v>2.1052360534667969</v>
-      </c>
-      <c r="CC9">
-        <v>2.9938220977783199</v>
-      </c>
-      <c r="CD9">
-        <v>2.0098686218261719</v>
-      </c>
-      <c r="CE9">
-        <v>3.0195713043212891</v>
-      </c>
-      <c r="CF9">
-        <v>3.0736923217773442</v>
-      </c>
-      <c r="CG9">
-        <v>3.005743026733398</v>
-      </c>
-      <c r="CH9">
-        <v>3.085851669311523</v>
-      </c>
-      <c r="CI9">
-        <v>3.021240234375</v>
-      </c>
-      <c r="CJ9">
-        <v>3.9896965026855469</v>
-      </c>
-      <c r="CK9">
-        <v>1.9969940185546879</v>
-      </c>
-      <c r="CL9">
-        <v>2.9253959655761719</v>
-      </c>
-      <c r="CM9">
-        <v>3.013372421264648</v>
-      </c>
-      <c r="CN9">
-        <v>3.0267238616943359</v>
-      </c>
-      <c r="CO9">
-        <v>3.0281543731689449</v>
-      </c>
-      <c r="CP9">
-        <v>2.9728412628173828</v>
-      </c>
-      <c r="CQ9">
-        <v>2.9838085174560551</v>
-      </c>
-      <c r="CR9">
-        <v>2.9966831207275391</v>
-      </c>
-      <c r="CS9">
-        <v>2.6180744171142578</v>
-      </c>
-      <c r="CT9">
-        <v>3.005743026733398</v>
-      </c>
-      <c r="CU9">
-        <v>3.078699111938477</v>
-      </c>
-      <c r="CV9">
-        <v>2.0127296447753911</v>
-      </c>
-      <c r="CW9">
-        <v>2.014398574829102</v>
-      </c>
-      <c r="CX9">
-        <v>2.9330253601074219</v>
+        <v>26.263713836669918</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -5308,8 +3716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5320,19 +3728,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5340,216 +3748,160 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f>QUARTILE(Sheet1!$C2:$CX2,C$11)</f>
-        <v>0.84099999999999997</v>
+        <v>0.92312499999999997</v>
       </c>
       <c r="D2">
         <f>QUARTILE(Sheet1!$C2:$CX2,D$11)</f>
-        <v>0.84799999999999998</v>
+        <v>0.92855468750000003</v>
       </c>
       <c r="E2">
         <f>QUARTILE(Sheet1!$C2:$CX2,E$11)</f>
-        <v>0.85199999999999998</v>
+        <v>0.93023437499999995</v>
       </c>
       <c r="F2">
         <f>QUARTILE(Sheet1!$C2:$CX2,F$11)</f>
-        <v>0.85599999999999998</v>
+        <v>0.93128906249999999</v>
       </c>
       <c r="G2">
         <f>QUARTILE(Sheet1!$C2:$CX2,G$11)</f>
-        <v>0.873</v>
+        <v>0.93531249999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <f>QUARTILE(Sheet1!$C3:$CX3,C$11)</f>
-        <v>0.72399999999999998</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="D3">
         <f>QUARTILE(Sheet1!$C3:$CX3,D$11)</f>
-        <v>0.80675000000000008</v>
+        <v>0.92578125</v>
       </c>
       <c r="E3">
         <f>QUARTILE(Sheet1!$C3:$CX3,E$11)</f>
-        <v>0.82099999999999995</v>
+        <v>0.92765624999999996</v>
       </c>
       <c r="F3">
         <f>QUARTILE(Sheet1!$C3:$CX3,F$11)</f>
-        <v>0.83224999999999993</v>
+        <v>0.92941406250000003</v>
       </c>
       <c r="G3">
         <f>QUARTILE(Sheet1!$C3:$CX3,G$11)</f>
-        <v>0.85</v>
+        <v>0.93421874999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <f>QUARTILE(Sheet1!$C4:$CX4,C$11)</f>
-        <v>0.745</v>
+        <v>0.59921875000000002</v>
       </c>
       <c r="D4">
         <f>QUARTILE(Sheet1!$C4:$CX4,D$11)</f>
-        <v>0.81175000000000008</v>
+        <v>0.7913671874999999</v>
       </c>
       <c r="E4">
         <f>QUARTILE(Sheet1!$C4:$CX4,E$11)</f>
-        <v>0.82599999999999996</v>
+        <v>0.82367187500000005</v>
       </c>
       <c r="F4">
         <f>QUARTILE(Sheet1!$C4:$CX4,F$11)</f>
-        <v>0.83224999999999993</v>
+        <v>0.85257812499999996</v>
       </c>
       <c r="G4">
         <f>QUARTILE(Sheet1!$C4:$CX4,G$11)</f>
-        <v>0.86099999999999999</v>
+        <v>0.90921874999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <f>QUARTILE(Sheet1!$C5:$CX5,C$11)</f>
-        <v>0.26</v>
+        <v>25.094509124755859</v>
       </c>
       <c r="D5">
         <f>QUARTILE(Sheet1!$C5:$CX5,D$11)</f>
-        <v>0.50075000000000003</v>
+        <v>26.388764381408695</v>
       </c>
       <c r="E5">
         <f>QUARTILE(Sheet1!$C5:$CX5,E$11)</f>
-        <v>0.58050000000000002</v>
+        <v>26.990652084350589</v>
       </c>
       <c r="F5">
         <f>QUARTILE(Sheet1!$C5:$CX5,F$11)</f>
-        <v>0.65500000000000003</v>
+        <v>27.012765407562259</v>
       </c>
       <c r="G5">
         <f>QUARTILE(Sheet1!$C5:$CX5,G$11)</f>
-        <v>0.76700000000000002</v>
+        <v>28.49221229553223</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
         <f>QUARTILE(Sheet1!$C6:$CX6,C$11)</f>
-        <v>1.9156932830810549</v>
+        <v>26.309013366699219</v>
       </c>
       <c r="D6">
         <f>QUARTILE(Sheet1!$C6:$CX6,D$11)</f>
-        <v>2.0006895065307613</v>
+        <v>27.005434036254883</v>
       </c>
       <c r="E6">
         <f>QUARTILE(Sheet1!$C6:$CX6,E$11)</f>
-        <v>2.1233558654785161</v>
+        <v>27.944564819335938</v>
       </c>
       <c r="F6">
         <f>QUARTILE(Sheet1!$C6:$CX6,F$11)</f>
-        <v>2.9991865158081059</v>
+        <v>28.002738952636719</v>
       </c>
       <c r="G6">
         <f>QUARTILE(Sheet1!$C6:$CX6,G$11)</f>
-        <v>4.8310756683349609</v>
+        <v>29.258489608764648</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <f>QUARTILE(Sheet1!$C7:$CX7,C$11)</f>
-        <v>1.6205310821533201</v>
+        <v>26.00002288818359</v>
       </c>
       <c r="D7">
         <f>QUARTILE(Sheet1!$C7:$CX7,D$11)</f>
-        <v>2.0014643669128418</v>
+        <v>27.010977268218994</v>
       </c>
       <c r="E7">
         <f>QUARTILE(Sheet1!$C7:$CX7,E$11)</f>
-        <v>2.2486448287963867</v>
+        <v>27.469158172607422</v>
       </c>
       <c r="F7">
         <f>QUARTILE(Sheet1!$C7:$CX7,F$11)</f>
-        <v>2.9962658882141113</v>
+        <v>28.002560138702396</v>
       </c>
       <c r="G7">
         <f>QUARTILE(Sheet1!$C7:$CX7,G$11)</f>
-        <v>3.15093994140625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <f>QUARTILE(Sheet1!$C8:$CX8,C$11)</f>
-        <v>1.513481140136719</v>
-      </c>
-      <c r="D8">
-        <f>QUARTILE(Sheet1!$C8:$CX8,D$11)</f>
-        <v>1.995205879211426</v>
-      </c>
-      <c r="E8">
-        <f>QUARTILE(Sheet1!$C8:$CX8,E$11)</f>
-        <v>2.0051002502441406</v>
-      </c>
-      <c r="F8">
-        <f>QUARTILE(Sheet1!$C8:$CX8,F$11)</f>
-        <v>2.9952526092529301</v>
-      </c>
-      <c r="G8">
-        <f>QUARTILE(Sheet1!$C8:$CX8,G$11)</f>
-        <v>4.0040016174316406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <f>QUARTILE(Sheet1!$C9:$CX9,C$11)</f>
-        <v>1.73187255859375</v>
-      </c>
-      <c r="D9">
-        <f>QUARTILE(Sheet1!$C9:$CX9,D$11)</f>
-        <v>2.009272575378418</v>
-      </c>
-      <c r="E9">
-        <f>QUARTILE(Sheet1!$C9:$CX9,E$11)</f>
-        <v>2.993226051330566</v>
-      </c>
-      <c r="F9">
-        <f>QUARTILE(Sheet1!$C9:$CX9,F$11)</f>
-        <v>3.0065774917602544</v>
-      </c>
-      <c r="G9">
-        <f>QUARTILE(Sheet1!$C9:$CX9,G$11)</f>
-        <v>3.9896965026855469</v>
+        <v>28.95760536193848</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5568,10 +3920,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
